--- a/trunk/Mapeamento P1/Atualizados - 04_12/Mapeamento Técnico - PRO_APURACAO_TURMA_ONLINE - ATUALIZADO.xlsx
+++ b/trunk/Mapeamento P1/Atualizados - 04_12/Mapeamento Técnico - PRO_APURACAO_TURMA_ONLINE - ATUALIZADO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="165" windowWidth="14700" windowHeight="5535" tabRatio="905" activeTab="2"/>
+    <workbookView xWindow="915" yWindow="165" windowWidth="14700" windowHeight="5535" tabRatio="905" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Identificação" sheetId="15" r:id="rId1"/>
@@ -2499,6 +2499,24 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2507,24 +2525,6 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3781,7 +3781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -6508,7 +6508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -6518,9 +6518,6 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <oleObjects>
-    <oleObject progId="Visio.Drawing.11" shapeId="22529" r:id="rId3"/>
-  </oleObjects>
 </worksheet>
 </file>
 
@@ -6532,7 +6529,7 @@
   <dimension ref="A1:AF13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -6731,11 +6728,11 @@
       </c>
       <c r="L4" s="118"/>
       <c r="M4" s="118"/>
-      <c r="N4" s="189" t="s">
+      <c r="N4" s="186" t="s">
         <v>188</v>
       </c>
-      <c r="O4" s="183"/>
-      <c r="P4" s="183"/>
+      <c r="O4" s="189"/>
+      <c r="P4" s="189"/>
       <c r="Q4" s="192" t="s">
         <v>120</v>
       </c>
@@ -6751,7 +6748,7 @@
       <c r="U4" s="192" t="s">
         <v>177</v>
       </c>
-      <c r="V4" s="183"/>
+      <c r="V4" s="189"/>
       <c r="W4" s="198" t="s">
         <v>171</v>
       </c>
@@ -6761,10 +6758,10 @@
       <c r="Y4" s="198">
         <v>2</v>
       </c>
-      <c r="Z4" s="183"/>
-      <c r="AA4" s="183"/>
-      <c r="AB4" s="183"/>
-      <c r="AC4" s="186"/>
+      <c r="Z4" s="189"/>
+      <c r="AA4" s="189"/>
+      <c r="AB4" s="189"/>
+      <c r="AC4" s="183"/>
       <c r="AD4" s="117"/>
       <c r="AE4" s="117"/>
       <c r="AF4" s="117"/>
@@ -6800,22 +6797,22 @@
       </c>
       <c r="L5" s="106"/>
       <c r="M5" s="107"/>
-      <c r="N5" s="190"/>
-      <c r="O5" s="184"/>
-      <c r="P5" s="184"/>
+      <c r="N5" s="187"/>
+      <c r="O5" s="190"/>
+      <c r="P5" s="190"/>
       <c r="Q5" s="193"/>
       <c r="R5" s="196"/>
       <c r="S5" s="196"/>
       <c r="T5" s="193"/>
       <c r="U5" s="193"/>
-      <c r="V5" s="184"/>
+      <c r="V5" s="190"/>
       <c r="W5" s="199"/>
       <c r="X5" s="193"/>
       <c r="Y5" s="199"/>
-      <c r="Z5" s="184"/>
-      <c r="AA5" s="184"/>
-      <c r="AB5" s="184"/>
-      <c r="AC5" s="187"/>
+      <c r="Z5" s="190"/>
+      <c r="AA5" s="190"/>
+      <c r="AB5" s="190"/>
+      <c r="AC5" s="184"/>
     </row>
     <row r="6" spans="1:32">
       <c r="B6" s="58" t="s">
@@ -6848,22 +6845,22 @@
       </c>
       <c r="L6" s="64"/>
       <c r="M6" s="107"/>
-      <c r="N6" s="190"/>
-      <c r="O6" s="184"/>
-      <c r="P6" s="184"/>
+      <c r="N6" s="187"/>
+      <c r="O6" s="190"/>
+      <c r="P6" s="190"/>
       <c r="Q6" s="193"/>
       <c r="R6" s="196"/>
       <c r="S6" s="196"/>
       <c r="T6" s="193"/>
       <c r="U6" s="193"/>
-      <c r="V6" s="184"/>
+      <c r="V6" s="190"/>
       <c r="W6" s="199"/>
       <c r="X6" s="193"/>
       <c r="Y6" s="199"/>
-      <c r="Z6" s="184"/>
-      <c r="AA6" s="184"/>
-      <c r="AB6" s="184"/>
-      <c r="AC6" s="187"/>
+      <c r="Z6" s="190"/>
+      <c r="AA6" s="190"/>
+      <c r="AB6" s="190"/>
+      <c r="AC6" s="184"/>
     </row>
     <row r="7" spans="1:32">
       <c r="B7" s="58" t="s">
@@ -6896,22 +6893,22 @@
       </c>
       <c r="L7" s="64"/>
       <c r="M7" s="107"/>
-      <c r="N7" s="190"/>
-      <c r="O7" s="184"/>
-      <c r="P7" s="184"/>
+      <c r="N7" s="187"/>
+      <c r="O7" s="190"/>
+      <c r="P7" s="190"/>
       <c r="Q7" s="193"/>
       <c r="R7" s="196"/>
       <c r="S7" s="196"/>
       <c r="T7" s="193"/>
       <c r="U7" s="193"/>
-      <c r="V7" s="184"/>
+      <c r="V7" s="190"/>
       <c r="W7" s="199"/>
       <c r="X7" s="193"/>
       <c r="Y7" s="199"/>
-      <c r="Z7" s="184"/>
-      <c r="AA7" s="184"/>
-      <c r="AB7" s="184"/>
-      <c r="AC7" s="187"/>
+      <c r="Z7" s="190"/>
+      <c r="AA7" s="190"/>
+      <c r="AB7" s="190"/>
+      <c r="AC7" s="184"/>
     </row>
     <row r="8" spans="1:32">
       <c r="B8" s="58" t="s">
@@ -6944,22 +6941,22 @@
       </c>
       <c r="L8" s="64"/>
       <c r="M8" s="107"/>
-      <c r="N8" s="190"/>
-      <c r="O8" s="184"/>
-      <c r="P8" s="184"/>
+      <c r="N8" s="187"/>
+      <c r="O8" s="190"/>
+      <c r="P8" s="190"/>
       <c r="Q8" s="193"/>
       <c r="R8" s="196"/>
       <c r="S8" s="196"/>
       <c r="T8" s="193"/>
       <c r="U8" s="193"/>
-      <c r="V8" s="184"/>
+      <c r="V8" s="190"/>
       <c r="W8" s="199"/>
       <c r="X8" s="193"/>
       <c r="Y8" s="199"/>
-      <c r="Z8" s="184"/>
-      <c r="AA8" s="184"/>
-      <c r="AB8" s="184"/>
-      <c r="AC8" s="187"/>
+      <c r="Z8" s="190"/>
+      <c r="AA8" s="190"/>
+      <c r="AB8" s="190"/>
+      <c r="AC8" s="184"/>
     </row>
     <row r="9" spans="1:32">
       <c r="B9" s="58" t="s">
@@ -6992,22 +6989,22 @@
       </c>
       <c r="L9" s="64"/>
       <c r="M9" s="107"/>
-      <c r="N9" s="190"/>
-      <c r="O9" s="184"/>
-      <c r="P9" s="184"/>
+      <c r="N9" s="187"/>
+      <c r="O9" s="190"/>
+      <c r="P9" s="190"/>
       <c r="Q9" s="193"/>
       <c r="R9" s="196"/>
       <c r="S9" s="196"/>
       <c r="T9" s="193"/>
       <c r="U9" s="193"/>
-      <c r="V9" s="184"/>
+      <c r="V9" s="190"/>
       <c r="W9" s="199"/>
       <c r="X9" s="193"/>
       <c r="Y9" s="199"/>
-      <c r="Z9" s="184"/>
-      <c r="AA9" s="184"/>
-      <c r="AB9" s="184"/>
-      <c r="AC9" s="187"/>
+      <c r="Z9" s="190"/>
+      <c r="AA9" s="190"/>
+      <c r="AB9" s="190"/>
+      <c r="AC9" s="184"/>
     </row>
     <row r="10" spans="1:32">
       <c r="B10" s="58" t="s">
@@ -7040,22 +7037,22 @@
       </c>
       <c r="L10" s="64"/>
       <c r="M10" s="107"/>
-      <c r="N10" s="190"/>
-      <c r="O10" s="184"/>
-      <c r="P10" s="184"/>
+      <c r="N10" s="187"/>
+      <c r="O10" s="190"/>
+      <c r="P10" s="190"/>
       <c r="Q10" s="193"/>
       <c r="R10" s="196"/>
       <c r="S10" s="196"/>
       <c r="T10" s="193"/>
       <c r="U10" s="193"/>
-      <c r="V10" s="184"/>
+      <c r="V10" s="190"/>
       <c r="W10" s="199"/>
       <c r="X10" s="193"/>
       <c r="Y10" s="199"/>
-      <c r="Z10" s="184"/>
-      <c r="AA10" s="184"/>
-      <c r="AB10" s="184"/>
-      <c r="AC10" s="187"/>
+      <c r="Z10" s="190"/>
+      <c r="AA10" s="190"/>
+      <c r="AB10" s="190"/>
+      <c r="AC10" s="184"/>
     </row>
     <row r="11" spans="1:32" s="71" customFormat="1" ht="12" customHeight="1">
       <c r="B11" s="58" t="s">
@@ -7088,22 +7085,22 @@
       </c>
       <c r="L11" s="64"/>
       <c r="M11" s="58"/>
-      <c r="N11" s="190"/>
-      <c r="O11" s="184"/>
-      <c r="P11" s="184"/>
+      <c r="N11" s="187"/>
+      <c r="O11" s="190"/>
+      <c r="P11" s="190"/>
       <c r="Q11" s="193"/>
       <c r="R11" s="196"/>
       <c r="S11" s="196"/>
       <c r="T11" s="193"/>
       <c r="U11" s="193"/>
-      <c r="V11" s="184"/>
+      <c r="V11" s="190"/>
       <c r="W11" s="199"/>
       <c r="X11" s="193"/>
       <c r="Y11" s="199"/>
-      <c r="Z11" s="184"/>
-      <c r="AA11" s="184"/>
-      <c r="AB11" s="184"/>
-      <c r="AC11" s="187"/>
+      <c r="Z11" s="190"/>
+      <c r="AA11" s="190"/>
+      <c r="AB11" s="190"/>
+      <c r="AC11" s="184"/>
     </row>
     <row r="12" spans="1:32">
       <c r="B12" s="58" t="s">
@@ -7136,22 +7133,22 @@
       </c>
       <c r="L12" s="64"/>
       <c r="M12" s="107"/>
-      <c r="N12" s="191"/>
-      <c r="O12" s="185"/>
-      <c r="P12" s="185"/>
+      <c r="N12" s="188"/>
+      <c r="O12" s="191"/>
+      <c r="P12" s="191"/>
       <c r="Q12" s="194"/>
       <c r="R12" s="197"/>
       <c r="S12" s="197"/>
       <c r="T12" s="194"/>
       <c r="U12" s="194"/>
-      <c r="V12" s="185"/>
+      <c r="V12" s="191"/>
       <c r="W12" s="200"/>
       <c r="X12" s="194"/>
       <c r="Y12" s="200"/>
-      <c r="Z12" s="185"/>
-      <c r="AA12" s="185"/>
-      <c r="AB12" s="185"/>
-      <c r="AC12" s="188"/>
+      <c r="Z12" s="191"/>
+      <c r="AA12" s="191"/>
+      <c r="AB12" s="191"/>
+      <c r="AC12" s="185"/>
     </row>
     <row r="13" spans="1:32" ht="84">
       <c r="B13" s="58" t="s">
@@ -7256,7 +7253,7 @@
   <dimension ref="A1:AF17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -7535,11 +7532,11 @@
       </c>
       <c r="L6" s="118"/>
       <c r="M6" s="118"/>
-      <c r="N6" s="189" t="s">
+      <c r="N6" s="186" t="s">
         <v>191</v>
       </c>
-      <c r="O6" s="183"/>
-      <c r="P6" s="183"/>
+      <c r="O6" s="189"/>
+      <c r="P6" s="189"/>
       <c r="Q6" s="201" t="s">
         <v>120</v>
       </c>
@@ -7565,10 +7562,10 @@
       <c r="Y6" s="210">
         <v>2</v>
       </c>
-      <c r="Z6" s="183"/>
-      <c r="AA6" s="183"/>
-      <c r="AB6" s="183"/>
-      <c r="AC6" s="186"/>
+      <c r="Z6" s="189"/>
+      <c r="AA6" s="189"/>
+      <c r="AB6" s="189"/>
+      <c r="AC6" s="183"/>
       <c r="AD6" s="117"/>
       <c r="AE6" s="117"/>
       <c r="AF6" s="117"/>
@@ -7604,9 +7601,9 @@
       </c>
       <c r="L7" s="106"/>
       <c r="M7" s="107"/>
-      <c r="N7" s="190"/>
-      <c r="O7" s="184"/>
-      <c r="P7" s="184"/>
+      <c r="N7" s="187"/>
+      <c r="O7" s="190"/>
+      <c r="P7" s="190"/>
       <c r="Q7" s="202"/>
       <c r="R7" s="214"/>
       <c r="S7" s="214"/>
@@ -7616,10 +7613,10 @@
       <c r="W7" s="208"/>
       <c r="X7" s="202"/>
       <c r="Y7" s="211"/>
-      <c r="Z7" s="184"/>
-      <c r="AA7" s="184"/>
-      <c r="AB7" s="184"/>
-      <c r="AC7" s="187"/>
+      <c r="Z7" s="190"/>
+      <c r="AA7" s="190"/>
+      <c r="AB7" s="190"/>
+      <c r="AC7" s="184"/>
     </row>
     <row r="8" spans="1:32">
       <c r="B8" s="58" t="s">
@@ -7652,9 +7649,9 @@
       </c>
       <c r="L8" s="64"/>
       <c r="M8" s="107"/>
-      <c r="N8" s="190"/>
-      <c r="O8" s="184"/>
-      <c r="P8" s="184"/>
+      <c r="N8" s="187"/>
+      <c r="O8" s="190"/>
+      <c r="P8" s="190"/>
       <c r="Q8" s="202"/>
       <c r="R8" s="214"/>
       <c r="S8" s="214"/>
@@ -7664,10 +7661,10 @@
       <c r="W8" s="208"/>
       <c r="X8" s="202"/>
       <c r="Y8" s="211"/>
-      <c r="Z8" s="184"/>
-      <c r="AA8" s="184"/>
-      <c r="AB8" s="184"/>
-      <c r="AC8" s="187"/>
+      <c r="Z8" s="190"/>
+      <c r="AA8" s="190"/>
+      <c r="AB8" s="190"/>
+      <c r="AC8" s="184"/>
     </row>
     <row r="9" spans="1:32">
       <c r="B9" s="58" t="s">
@@ -7700,9 +7697,9 @@
       </c>
       <c r="L9" s="64"/>
       <c r="M9" s="107"/>
-      <c r="N9" s="190"/>
-      <c r="O9" s="184"/>
-      <c r="P9" s="184"/>
+      <c r="N9" s="187"/>
+      <c r="O9" s="190"/>
+      <c r="P9" s="190"/>
       <c r="Q9" s="202"/>
       <c r="R9" s="214"/>
       <c r="S9" s="214"/>
@@ -7712,10 +7709,10 @@
       <c r="W9" s="208"/>
       <c r="X9" s="202"/>
       <c r="Y9" s="211"/>
-      <c r="Z9" s="184"/>
-      <c r="AA9" s="184"/>
-      <c r="AB9" s="184"/>
-      <c r="AC9" s="187"/>
+      <c r="Z9" s="190"/>
+      <c r="AA9" s="190"/>
+      <c r="AB9" s="190"/>
+      <c r="AC9" s="184"/>
     </row>
     <row r="10" spans="1:32">
       <c r="B10" s="58" t="s">
@@ -7748,9 +7745,9 @@
       </c>
       <c r="L10" s="64"/>
       <c r="M10" s="107"/>
-      <c r="N10" s="190"/>
-      <c r="O10" s="184"/>
-      <c r="P10" s="184"/>
+      <c r="N10" s="187"/>
+      <c r="O10" s="190"/>
+      <c r="P10" s="190"/>
       <c r="Q10" s="202"/>
       <c r="R10" s="214"/>
       <c r="S10" s="214"/>
@@ -7760,10 +7757,10 @@
       <c r="W10" s="208"/>
       <c r="X10" s="202"/>
       <c r="Y10" s="211"/>
-      <c r="Z10" s="184"/>
-      <c r="AA10" s="184"/>
-      <c r="AB10" s="184"/>
-      <c r="AC10" s="187"/>
+      <c r="Z10" s="190"/>
+      <c r="AA10" s="190"/>
+      <c r="AB10" s="190"/>
+      <c r="AC10" s="184"/>
     </row>
     <row r="11" spans="1:32">
       <c r="B11" s="58" t="s">
@@ -7796,9 +7793,9 @@
       </c>
       <c r="L11" s="64"/>
       <c r="M11" s="107"/>
-      <c r="N11" s="190"/>
-      <c r="O11" s="184"/>
-      <c r="P11" s="184"/>
+      <c r="N11" s="187"/>
+      <c r="O11" s="190"/>
+      <c r="P11" s="190"/>
       <c r="Q11" s="202"/>
       <c r="R11" s="214"/>
       <c r="S11" s="214"/>
@@ -7808,10 +7805,10 @@
       <c r="W11" s="208"/>
       <c r="X11" s="202"/>
       <c r="Y11" s="211"/>
-      <c r="Z11" s="184"/>
-      <c r="AA11" s="184"/>
-      <c r="AB11" s="184"/>
-      <c r="AC11" s="187"/>
+      <c r="Z11" s="190"/>
+      <c r="AA11" s="190"/>
+      <c r="AB11" s="190"/>
+      <c r="AC11" s="184"/>
     </row>
     <row r="12" spans="1:32">
       <c r="B12" s="58" t="s">
@@ -7844,9 +7841,9 @@
       </c>
       <c r="L12" s="64"/>
       <c r="M12" s="107"/>
-      <c r="N12" s="190"/>
-      <c r="O12" s="184"/>
-      <c r="P12" s="184"/>
+      <c r="N12" s="187"/>
+      <c r="O12" s="190"/>
+      <c r="P12" s="190"/>
       <c r="Q12" s="202"/>
       <c r="R12" s="214"/>
       <c r="S12" s="214"/>
@@ -7856,10 +7853,10 @@
       <c r="W12" s="208"/>
       <c r="X12" s="202"/>
       <c r="Y12" s="211"/>
-      <c r="Z12" s="184"/>
-      <c r="AA12" s="184"/>
-      <c r="AB12" s="184"/>
-      <c r="AC12" s="187"/>
+      <c r="Z12" s="190"/>
+      <c r="AA12" s="190"/>
+      <c r="AB12" s="190"/>
+      <c r="AC12" s="184"/>
     </row>
     <row r="13" spans="1:32" s="71" customFormat="1" ht="12" customHeight="1">
       <c r="B13" s="58" t="s">
@@ -7892,9 +7889,9 @@
       </c>
       <c r="L13" s="64"/>
       <c r="M13" s="58"/>
-      <c r="N13" s="190"/>
-      <c r="O13" s="184"/>
-      <c r="P13" s="184"/>
+      <c r="N13" s="187"/>
+      <c r="O13" s="190"/>
+      <c r="P13" s="190"/>
       <c r="Q13" s="202"/>
       <c r="R13" s="214"/>
       <c r="S13" s="214"/>
@@ -7904,10 +7901,10 @@
       <c r="W13" s="208"/>
       <c r="X13" s="202"/>
       <c r="Y13" s="211"/>
-      <c r="Z13" s="184"/>
-      <c r="AA13" s="184"/>
-      <c r="AB13" s="184"/>
-      <c r="AC13" s="187"/>
+      <c r="Z13" s="190"/>
+      <c r="AA13" s="190"/>
+      <c r="AB13" s="190"/>
+      <c r="AC13" s="184"/>
     </row>
     <row r="14" spans="1:32">
       <c r="B14" s="58" t="s">
@@ -7940,9 +7937,9 @@
       </c>
       <c r="L14" s="64"/>
       <c r="M14" s="107"/>
-      <c r="N14" s="191"/>
-      <c r="O14" s="185"/>
-      <c r="P14" s="185"/>
+      <c r="N14" s="188"/>
+      <c r="O14" s="191"/>
+      <c r="P14" s="191"/>
       <c r="Q14" s="203"/>
       <c r="R14" s="215"/>
       <c r="S14" s="215"/>
@@ -7952,10 +7949,10 @@
       <c r="W14" s="209"/>
       <c r="X14" s="203"/>
       <c r="Y14" s="212"/>
-      <c r="Z14" s="185"/>
-      <c r="AA14" s="185"/>
-      <c r="AB14" s="185"/>
-      <c r="AC14" s="188"/>
+      <c r="Z14" s="191"/>
+      <c r="AA14" s="191"/>
+      <c r="AB14" s="191"/>
+      <c r="AC14" s="185"/>
     </row>
     <row r="15" spans="1:32">
       <c r="B15" s="58" t="s">
@@ -8192,10 +8189,10 @@
   <dimension ref="A1:AF17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N15" sqref="N15"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
@@ -8471,11 +8468,11 @@
       </c>
       <c r="L6" s="118"/>
       <c r="M6" s="118"/>
-      <c r="N6" s="189" t="s">
+      <c r="N6" s="186" t="s">
         <v>198</v>
       </c>
-      <c r="O6" s="183"/>
-      <c r="P6" s="183"/>
+      <c r="O6" s="189"/>
+      <c r="P6" s="189"/>
       <c r="Q6" s="201" t="s">
         <v>120</v>
       </c>
@@ -8501,10 +8498,10 @@
       <c r="Y6" s="210">
         <v>2</v>
       </c>
-      <c r="Z6" s="183"/>
-      <c r="AA6" s="183"/>
-      <c r="AB6" s="183"/>
-      <c r="AC6" s="186"/>
+      <c r="Z6" s="189"/>
+      <c r="AA6" s="189"/>
+      <c r="AB6" s="189"/>
+      <c r="AC6" s="183"/>
       <c r="AD6" s="117"/>
       <c r="AE6" s="117"/>
       <c r="AF6" s="117"/>
@@ -8540,9 +8537,9 @@
       </c>
       <c r="L7" s="106"/>
       <c r="M7" s="107"/>
-      <c r="N7" s="190"/>
-      <c r="O7" s="184"/>
-      <c r="P7" s="184"/>
+      <c r="N7" s="187"/>
+      <c r="O7" s="190"/>
+      <c r="P7" s="190"/>
       <c r="Q7" s="202"/>
       <c r="R7" s="214"/>
       <c r="S7" s="214"/>
@@ -8552,10 +8549,10 @@
       <c r="W7" s="208"/>
       <c r="X7" s="202"/>
       <c r="Y7" s="211"/>
-      <c r="Z7" s="184"/>
-      <c r="AA7" s="184"/>
-      <c r="AB7" s="184"/>
-      <c r="AC7" s="187"/>
+      <c r="Z7" s="190"/>
+      <c r="AA7" s="190"/>
+      <c r="AB7" s="190"/>
+      <c r="AC7" s="184"/>
     </row>
     <row r="8" spans="1:32">
       <c r="B8" s="58" t="s">
@@ -8588,9 +8585,9 @@
       </c>
       <c r="L8" s="64"/>
       <c r="M8" s="107"/>
-      <c r="N8" s="190"/>
-      <c r="O8" s="184"/>
-      <c r="P8" s="184"/>
+      <c r="N8" s="187"/>
+      <c r="O8" s="190"/>
+      <c r="P8" s="190"/>
       <c r="Q8" s="202"/>
       <c r="R8" s="214"/>
       <c r="S8" s="214"/>
@@ -8600,10 +8597,10 @@
       <c r="W8" s="208"/>
       <c r="X8" s="202"/>
       <c r="Y8" s="211"/>
-      <c r="Z8" s="184"/>
-      <c r="AA8" s="184"/>
-      <c r="AB8" s="184"/>
-      <c r="AC8" s="187"/>
+      <c r="Z8" s="190"/>
+      <c r="AA8" s="190"/>
+      <c r="AB8" s="190"/>
+      <c r="AC8" s="184"/>
     </row>
     <row r="9" spans="1:32">
       <c r="B9" s="58" t="s">
@@ -8636,9 +8633,9 @@
       </c>
       <c r="L9" s="64"/>
       <c r="M9" s="107"/>
-      <c r="N9" s="190"/>
-      <c r="O9" s="184"/>
-      <c r="P9" s="184"/>
+      <c r="N9" s="187"/>
+      <c r="O9" s="190"/>
+      <c r="P9" s="190"/>
       <c r="Q9" s="202"/>
       <c r="R9" s="214"/>
       <c r="S9" s="214"/>
@@ -8648,10 +8645,10 @@
       <c r="W9" s="208"/>
       <c r="X9" s="202"/>
       <c r="Y9" s="211"/>
-      <c r="Z9" s="184"/>
-      <c r="AA9" s="184"/>
-      <c r="AB9" s="184"/>
-      <c r="AC9" s="187"/>
+      <c r="Z9" s="190"/>
+      <c r="AA9" s="190"/>
+      <c r="AB9" s="190"/>
+      <c r="AC9" s="184"/>
     </row>
     <row r="10" spans="1:32">
       <c r="B10" s="58" t="s">
@@ -8684,9 +8681,9 @@
       </c>
       <c r="L10" s="64"/>
       <c r="M10" s="107"/>
-      <c r="N10" s="190"/>
-      <c r="O10" s="184"/>
-      <c r="P10" s="184"/>
+      <c r="N10" s="187"/>
+      <c r="O10" s="190"/>
+      <c r="P10" s="190"/>
       <c r="Q10" s="202"/>
       <c r="R10" s="214"/>
       <c r="S10" s="214"/>
@@ -8696,10 +8693,10 @@
       <c r="W10" s="208"/>
       <c r="X10" s="202"/>
       <c r="Y10" s="211"/>
-      <c r="Z10" s="184"/>
-      <c r="AA10" s="184"/>
-      <c r="AB10" s="184"/>
-      <c r="AC10" s="187"/>
+      <c r="Z10" s="190"/>
+      <c r="AA10" s="190"/>
+      <c r="AB10" s="190"/>
+      <c r="AC10" s="184"/>
     </row>
     <row r="11" spans="1:32">
       <c r="B11" s="58" t="s">
@@ -8732,9 +8729,9 @@
       </c>
       <c r="L11" s="64"/>
       <c r="M11" s="107"/>
-      <c r="N11" s="190"/>
-      <c r="O11" s="184"/>
-      <c r="P11" s="184"/>
+      <c r="N11" s="187"/>
+      <c r="O11" s="190"/>
+      <c r="P11" s="190"/>
       <c r="Q11" s="202"/>
       <c r="R11" s="214"/>
       <c r="S11" s="214"/>
@@ -8744,10 +8741,10 @@
       <c r="W11" s="208"/>
       <c r="X11" s="202"/>
       <c r="Y11" s="211"/>
-      <c r="Z11" s="184"/>
-      <c r="AA11" s="184"/>
-      <c r="AB11" s="184"/>
-      <c r="AC11" s="187"/>
+      <c r="Z11" s="190"/>
+      <c r="AA11" s="190"/>
+      <c r="AB11" s="190"/>
+      <c r="AC11" s="184"/>
     </row>
     <row r="12" spans="1:32">
       <c r="B12" s="58" t="s">
@@ -8780,9 +8777,9 @@
       </c>
       <c r="L12" s="64"/>
       <c r="M12" s="107"/>
-      <c r="N12" s="190"/>
-      <c r="O12" s="184"/>
-      <c r="P12" s="184"/>
+      <c r="N12" s="187"/>
+      <c r="O12" s="190"/>
+      <c r="P12" s="190"/>
       <c r="Q12" s="202"/>
       <c r="R12" s="214"/>
       <c r="S12" s="214"/>
@@ -8792,10 +8789,10 @@
       <c r="W12" s="208"/>
       <c r="X12" s="202"/>
       <c r="Y12" s="211"/>
-      <c r="Z12" s="184"/>
-      <c r="AA12" s="184"/>
-      <c r="AB12" s="184"/>
-      <c r="AC12" s="187"/>
+      <c r="Z12" s="190"/>
+      <c r="AA12" s="190"/>
+      <c r="AB12" s="190"/>
+      <c r="AC12" s="184"/>
     </row>
     <row r="13" spans="1:32" s="71" customFormat="1" ht="12" customHeight="1">
       <c r="B13" s="58" t="s">
@@ -8828,9 +8825,9 @@
       </c>
       <c r="L13" s="64"/>
       <c r="M13" s="58"/>
-      <c r="N13" s="190"/>
-      <c r="O13" s="184"/>
-      <c r="P13" s="184"/>
+      <c r="N13" s="187"/>
+      <c r="O13" s="190"/>
+      <c r="P13" s="190"/>
       <c r="Q13" s="202"/>
       <c r="R13" s="214"/>
       <c r="S13" s="214"/>
@@ -8840,10 +8837,10 @@
       <c r="W13" s="208"/>
       <c r="X13" s="202"/>
       <c r="Y13" s="211"/>
-      <c r="Z13" s="184"/>
-      <c r="AA13" s="184"/>
-      <c r="AB13" s="184"/>
-      <c r="AC13" s="187"/>
+      <c r="Z13" s="190"/>
+      <c r="AA13" s="190"/>
+      <c r="AB13" s="190"/>
+      <c r="AC13" s="184"/>
     </row>
     <row r="14" spans="1:32">
       <c r="B14" s="58" t="s">
@@ -8876,9 +8873,9 @@
       </c>
       <c r="L14" s="64"/>
       <c r="M14" s="107"/>
-      <c r="N14" s="191"/>
-      <c r="O14" s="185"/>
-      <c r="P14" s="185"/>
+      <c r="N14" s="188"/>
+      <c r="O14" s="191"/>
+      <c r="P14" s="191"/>
       <c r="Q14" s="203"/>
       <c r="R14" s="215"/>
       <c r="S14" s="215"/>
@@ -8888,10 +8885,10 @@
       <c r="W14" s="209"/>
       <c r="X14" s="203"/>
       <c r="Y14" s="212"/>
-      <c r="Z14" s="185"/>
-      <c r="AA14" s="185"/>
-      <c r="AB14" s="185"/>
-      <c r="AC14" s="188"/>
+      <c r="Z14" s="191"/>
+      <c r="AA14" s="191"/>
+      <c r="AB14" s="191"/>
+      <c r="AC14" s="185"/>
     </row>
     <row r="15" spans="1:32">
       <c r="B15" s="58" t="s">
@@ -9093,6 +9090,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="R6:R14"/>
+    <mergeCell ref="Y6:Y14"/>
+    <mergeCell ref="Z6:Z14"/>
+    <mergeCell ref="AA6:AA14"/>
+    <mergeCell ref="AB6:AB14"/>
+    <mergeCell ref="AC6:AC14"/>
     <mergeCell ref="X6:X14"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
@@ -9106,12 +9109,6 @@
     <mergeCell ref="O6:O14"/>
     <mergeCell ref="P6:P14"/>
     <mergeCell ref="Q6:Q14"/>
-    <mergeCell ref="R6:R14"/>
-    <mergeCell ref="Y6:Y14"/>
-    <mergeCell ref="Z6:Z14"/>
-    <mergeCell ref="AA6:AA14"/>
-    <mergeCell ref="AB6:AB14"/>
-    <mergeCell ref="AC6:AC14"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>

--- a/trunk/Mapeamento P1/Atualizados - 04_12/Mapeamento Técnico - PRO_APURACAO_TURMA_ONLINE - ATUALIZADO.xlsx
+++ b/trunk/Mapeamento P1/Atualizados - 04_12/Mapeamento Técnico - PRO_APURACAO_TURMA_ONLINE - ATUALIZADO.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="165" windowWidth="14700" windowHeight="5535" tabRatio="905" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="19260" windowHeight="4350" tabRatio="905" firstSheet="9" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Identificação" sheetId="15" r:id="rId1"/>
@@ -16,8 +16,24 @@
     <sheet name="Mapeamento P2 - Fluxo 2 RT" sheetId="22" r:id="rId7"/>
     <sheet name="Mapeamento P2 - Fluxo 3 RT" sheetId="23" r:id="rId8"/>
     <sheet name="Regras de Mapeamento" sheetId="9" r:id="rId9"/>
+    <sheet name="Dummy_for_Comparison1" sheetId="24" r:id="rId10"/>
+    <sheet name="Dummy_for_Comparison2" sheetId="25" r:id="rId11"/>
+    <sheet name="Dummy_for_Comparison3" sheetId="26" r:id="rId12"/>
+    <sheet name="Dummy_for_Comparison4" sheetId="27" r:id="rId13"/>
+    <sheet name="Dummy_for_Comparison5" sheetId="28" r:id="rId14"/>
+    <sheet name="Dummy_for_Comparison6" sheetId="29" r:id="rId15"/>
+    <sheet name="Dummy_for_Comparison7" sheetId="30" r:id="rId16"/>
+    <sheet name="Dummy_for_Comparison8" sheetId="31" r:id="rId17"/>
+    <sheet name="Dummy_for_Comparison9" sheetId="32" r:id="rId18"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId19"/>
+  </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Dummy_for_Comparison4!$B$3:$AC$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Dummy_for_Comparison6!$B$3:$AC$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Dummy_for_Comparison7!$B$3:$AC$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Dummy_for_Comparison8!$B$3:$AC$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Mapeamento P1'!$B$3:$AC$40</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Mapeamento P2 - Fluxo 1'!$B$3:$AC$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Mapeamento P2 - Fluxo 2 RT'!$B$3:$AC$14</definedName>
@@ -67,6 +83,44 @@
           </rPr>
           <t xml:space="preserve">
 </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>bajpaia</author>
+  </authors>
+  <commentList>
+    <comment ref="H3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRIMARY/ FORIEGN</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRIMARY/ FORIEGN</t>
         </r>
       </text>
     </comment>
@@ -226,8 +280,169 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>bajpaia</author>
+  </authors>
+  <commentList>
+    <comment ref="D12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>[INSERT,UPDATE,DELETE,TRUNCATE]</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>INCREMENTAL /FULL</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>bajpaia</author>
+  </authors>
+  <commentList>
+    <comment ref="H3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRIMARY/ FORIEGN</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRIMARY/ FORIEGN</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>bajpaia</author>
+  </authors>
+  <commentList>
+    <comment ref="H3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRIMARY/ FORIEGN</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRIMARY/ FORIEGN</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>bajpaia</author>
+  </authors>
+  <commentList>
+    <comment ref="H3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRIMARY/ FORIEGN</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRIMARY/ FORIEGN</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="199">
   <si>
     <t>Schema</t>
   </si>
@@ -1973,7 +2188,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="228">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2343,6 +2558,99 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2352,62 +2660,29 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2415,6 +2690,27 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2433,51 +2729,6 @@
     <xf numFmtId="0" fontId="26" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2499,6 +2750,15 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2517,15 +2777,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2562,6 +2813,15 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2588,15 +2848,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2604,7 +2855,195 @@
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2766,7 +3205,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2789,14 +3228,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2839,7 +3278,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2862,14 +3301,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2886,12 +3325,209 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="8398" t="5827" r="9105" b="12836"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="314325" y="257175"/>
+          <a:ext cx="828675" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="8398" t="5827" r="9105" b="12836"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="295275" y="57150"/>
+          <a:ext cx="685800" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Identificação"/>
+      <sheetName val="Origens Destinos e Definições"/>
+      <sheetName val="Desenho do Mapa P1"/>
+      <sheetName val="Mapeamento P1"/>
+      <sheetName val="Desenho do Mapa P2"/>
+      <sheetName val="Mapeamento P2 - Fluxo 1"/>
+      <sheetName val="Mapeamento P2 - Fluxo 2 RT"/>
+      <sheetName val="Mapeamento P2 - Fluxo 3 RT"/>
+      <sheetName val="Regras de Mapeamento"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="D2" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="D3" t="str">
+            <v xml:space="preserve"> </v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="B6:C23" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="B6:C23" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17" headerRowCellStyle="Normal 2">
   <autoFilter ref="B6:C23"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Notação Técnica" dataDxfId="1" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" name="Notação a ser utilizada" dataDxfId="0" dataCellStyle="Normal 2"/>
+    <tableColumn id="1" name="Notação Técnica" dataDxfId="16" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" name="Notação a ser utilizada" dataDxfId="15" dataCellStyle="Normal 2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="B6:C23" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="2" tableBorderDxfId="3" totalsRowBorderDxfId="1" headerRowCellStyle="Normal 2">
+  <autoFilter ref="B6:C23"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Notação Técnica" dataDxfId="6" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" name="Notação a ser utilizada" dataDxfId="5" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3242,28 +3878,28 @@
     </row>
     <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1"/>
     <row r="9" spans="2:10">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="149" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="141"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="141"/>
-      <c r="H9" s="141"/>
-      <c r="I9" s="141"/>
-      <c r="J9" s="142"/>
+      <c r="C9" s="150"/>
+      <c r="D9" s="150"/>
+      <c r="E9" s="150"/>
+      <c r="F9" s="150"/>
+      <c r="G9" s="150"/>
+      <c r="H9" s="150"/>
+      <c r="I9" s="150"/>
+      <c r="J9" s="151"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="143"/>
-      <c r="C10" s="144"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="144"/>
-      <c r="G10" s="144"/>
-      <c r="H10" s="144"/>
-      <c r="I10" s="144"/>
-      <c r="J10" s="145"/>
+      <c r="B10" s="152"/>
+      <c r="C10" s="153"/>
+      <c r="D10" s="153"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="153"/>
+      <c r="G10" s="153"/>
+      <c r="H10" s="153"/>
+      <c r="I10" s="153"/>
+      <c r="J10" s="154"/>
     </row>
     <row r="11" spans="2:10" ht="13.5" thickBot="1">
       <c r="B11" s="37" t="s">
@@ -3272,17 +3908,17 @@
       <c r="C11" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="146" t="s">
+      <c r="D11" s="155" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="146"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="146" t="s">
+      <c r="E11" s="155"/>
+      <c r="F11" s="155"/>
+      <c r="G11" s="155" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="146"/>
-      <c r="I11" s="146"/>
-      <c r="J11" s="147"/>
+      <c r="H11" s="155"/>
+      <c r="I11" s="155"/>
+      <c r="J11" s="156"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="25" t="s">
@@ -3291,93 +3927,86 @@
       <c r="C12" s="24">
         <v>41234</v>
       </c>
-      <c r="D12" s="148" t="s">
+      <c r="D12" s="157" t="s">
         <v>113</v>
       </c>
-      <c r="E12" s="149"/>
-      <c r="F12" s="150"/>
-      <c r="G12" s="151" t="s">
+      <c r="E12" s="158"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="H12" s="151"/>
-      <c r="I12" s="151"/>
-      <c r="J12" s="152"/>
+      <c r="H12" s="160"/>
+      <c r="I12" s="160"/>
+      <c r="J12" s="161"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="23"/>
       <c r="C13" s="22"/>
-      <c r="D13" s="137"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="135"/>
-      <c r="I13" s="135"/>
-      <c r="J13" s="136"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="147"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="148"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="21"/>
       <c r="C14" s="20"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="135"/>
-      <c r="I14" s="135"/>
-      <c r="J14" s="136"/>
+      <c r="D14" s="162"/>
+      <c r="E14" s="162"/>
+      <c r="F14" s="162"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="147"/>
+      <c r="I14" s="147"/>
+      <c r="J14" s="148"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="21"/>
       <c r="C15" s="20"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="131"/>
-      <c r="F15" s="131"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="135"/>
-      <c r="I15" s="135"/>
-      <c r="J15" s="136"/>
+      <c r="D15" s="162"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="162"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="147"/>
+      <c r="I15" s="147"/>
+      <c r="J15" s="148"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="21"/>
       <c r="C16" s="20"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="135"/>
-      <c r="I16" s="135"/>
-      <c r="J16" s="136"/>
+      <c r="D16" s="162"/>
+      <c r="E16" s="162"/>
+      <c r="F16" s="162"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="148"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="21"/>
       <c r="C17" s="20"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="132"/>
-      <c r="H17" s="132"/>
-      <c r="I17" s="132"/>
-      <c r="J17" s="133"/>
+      <c r="D17" s="162"/>
+      <c r="E17" s="162"/>
+      <c r="F17" s="162"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="163"/>
+      <c r="I17" s="163"/>
+      <c r="J17" s="164"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="21"/>
       <c r="C18" s="20"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="131"/>
-      <c r="F18" s="131"/>
-      <c r="G18" s="132"/>
-      <c r="H18" s="132"/>
-      <c r="I18" s="132"/>
-      <c r="J18" s="133"/>
+      <c r="D18" s="162"/>
+      <c r="E18" s="162"/>
+      <c r="F18" s="162"/>
+      <c r="G18" s="163"/>
+      <c r="H18" s="163"/>
+      <c r="I18" s="163"/>
+      <c r="J18" s="164"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B9:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="D18:F18"/>
@@ -3388,11 +4017,6220 @@
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:J16"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B9:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:J18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" ht="18">
+      <c r="C2" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="15">
+      <c r="C3" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="C4" s="12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="C5" s="12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="C6" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="13.5" thickBot="1">
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+    </row>
+    <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1"/>
+    <row r="9" spans="2:10">
+      <c r="B9" s="149" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="150"/>
+      <c r="D9" s="150"/>
+      <c r="E9" s="150"/>
+      <c r="F9" s="150"/>
+      <c r="G9" s="150"/>
+      <c r="H9" s="150"/>
+      <c r="I9" s="150"/>
+      <c r="J9" s="151"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="152"/>
+      <c r="C10" s="153"/>
+      <c r="D10" s="153"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="153"/>
+      <c r="G10" s="153"/>
+      <c r="H10" s="153"/>
+      <c r="I10" s="153"/>
+      <c r="J10" s="154"/>
+    </row>
+    <row r="11" spans="2:10" ht="13.5" thickBot="1">
+      <c r="B11" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="131" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="155" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="155"/>
+      <c r="F11" s="155"/>
+      <c r="G11" s="155" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="155"/>
+      <c r="I11" s="155"/>
+      <c r="J11" s="156"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="24">
+        <v>41234</v>
+      </c>
+      <c r="D12" s="157" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="158"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="160" t="s">
+        <v>114</v>
+      </c>
+      <c r="H12" s="160"/>
+      <c r="I12" s="160"/>
+      <c r="J12" s="161"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="23"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="147"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="148"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="21"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="162"/>
+      <c r="E14" s="162"/>
+      <c r="F14" s="162"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="147"/>
+      <c r="I14" s="147"/>
+      <c r="J14" s="148"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="21"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="162"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="162"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="147"/>
+      <c r="I15" s="147"/>
+      <c r="J15" s="148"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="21"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="162"/>
+      <c r="E16" s="162"/>
+      <c r="F16" s="162"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="148"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="21"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="162"/>
+      <c r="E17" s="162"/>
+      <c r="F17" s="162"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="163"/>
+      <c r="I17" s="163"/>
+      <c r="J17" s="164"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="21"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="162"/>
+      <c r="E18" s="162"/>
+      <c r="F18" s="162"/>
+      <c r="G18" s="163"/>
+      <c r="H18" s="163"/>
+      <c r="I18" s="163"/>
+      <c r="J18" s="164"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="B9:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:J13"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:J30"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="46" style="11" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" ht="18">
+      <c r="C2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="19" t="str">
+        <f>[1]Identificação!D2</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="15">
+      <c r="C3" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="35" t="str">
+        <f>[1]Identificação!D3</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="13.5" thickBot="1">
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+    </row>
+    <row r="5" spans="2:10" ht="13.5" thickTop="1"/>
+    <row r="6" spans="2:10">
+      <c r="B6" s="170" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="170"/>
+      <c r="D6" s="170"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="170"/>
+      <c r="J6" s="170"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="170" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="170"/>
+      <c r="F7" s="170"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="170"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="170"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="76" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="171"/>
+      <c r="E8" s="171"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="171"/>
+      <c r="H8" s="171"/>
+      <c r="I8" s="171"/>
+      <c r="J8" s="171"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="179"/>
+      <c r="E9" s="180"/>
+      <c r="F9" s="180"/>
+      <c r="G9" s="180"/>
+      <c r="H9" s="180"/>
+      <c r="I9" s="180"/>
+      <c r="J9" s="180"/>
+    </row>
+    <row r="10" spans="2:10" ht="13.5" thickBot="1">
+      <c r="B10" s="5"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="173" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="174"/>
+      <c r="D11" s="174"/>
+      <c r="E11" s="174"/>
+      <c r="F11" s="174"/>
+      <c r="G11" s="174"/>
+      <c r="H11" s="174"/>
+      <c r="I11" s="174"/>
+      <c r="J11" s="174"/>
+    </row>
+    <row r="12" spans="2:10" ht="23.25" customHeight="1">
+      <c r="B12" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="175" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="177"/>
+      <c r="G12" s="175" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="176"/>
+      <c r="I12" s="176"/>
+      <c r="J12" s="177"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="77" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" s="165"/>
+      <c r="F13" s="166"/>
+      <c r="G13" s="178"/>
+      <c r="H13" s="178"/>
+      <c r="I13" s="178"/>
+      <c r="J13" s="178"/>
+    </row>
+    <row r="14" spans="2:10" ht="13.5" thickBot="1">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="2:10" ht="25.5" customHeight="1">
+      <c r="B15" s="173" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="174"/>
+      <c r="D15" s="174"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="2:10" ht="12.75" customHeight="1">
+      <c r="B20" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="2:10" ht="12.75" customHeight="1">
+      <c r="B22" s="170" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="170"/>
+      <c r="D22" s="170"/>
+      <c r="E22" s="170"/>
+      <c r="F22" s="170"/>
+      <c r="G22" s="170"/>
+      <c r="H22" s="170"/>
+      <c r="I22" s="170"/>
+      <c r="J22" s="170"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="172" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="172"/>
+      <c r="G23" s="172" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="172"/>
+      <c r="I23" s="172"/>
+      <c r="J23" s="172"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="8"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="181"/>
+      <c r="F24" s="181"/>
+      <c r="G24" s="181"/>
+      <c r="H24" s="181"/>
+      <c r="I24" s="181"/>
+      <c r="J24" s="181"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="8"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="181"/>
+      <c r="F25" s="181"/>
+      <c r="G25" s="181"/>
+      <c r="H25" s="181"/>
+      <c r="I25" s="181"/>
+      <c r="J25" s="181"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="8"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="181"/>
+      <c r="F26" s="181"/>
+      <c r="G26" s="181"/>
+      <c r="H26" s="181"/>
+      <c r="I26" s="181"/>
+      <c r="J26" s="181"/>
+    </row>
+    <row r="28" spans="2:10" ht="12.75" customHeight="1">
+      <c r="B28" s="182" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" s="183"/>
+      <c r="D28" s="183"/>
+      <c r="E28" s="183"/>
+      <c r="F28" s="183"/>
+      <c r="G28" s="183"/>
+      <c r="H28" s="183"/>
+      <c r="I28" s="183"/>
+      <c r="J28" s="184"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="85" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" s="86" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" s="86" t="s">
+        <v>153</v>
+      </c>
+      <c r="E29" s="185" t="s">
+        <v>154</v>
+      </c>
+      <c r="F29" s="186"/>
+      <c r="G29" s="185" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29" s="187"/>
+      <c r="I29" s="187"/>
+      <c r="J29" s="186"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="87" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" s="88"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="166"/>
+      <c r="G30" s="167"/>
+      <c r="H30" s="168"/>
+      <c r="I30" s="168"/>
+      <c r="J30" s="169"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:J12"/>
+  </mergeCells>
+  <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="2" width="3.7109375" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <oleObjects>
+    <oleObject progId="Visio.Drawing.11" shapeId="27649" r:id="rId3"/>
+  </oleObjects>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:AH43"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="11.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" style="46" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="57.28515625" style="47" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" style="47" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="33.85546875" style="47" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" style="47" customWidth="1"/>
+    <col min="18" max="19" width="24.140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.85546875" style="47" customWidth="1"/>
+    <col min="21" max="21" width="27" style="2" customWidth="1"/>
+    <col min="22" max="22" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5703125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="10.28515625" style="56" customWidth="1"/>
+    <col min="26" max="26" width="13.5703125" style="57" customWidth="1"/>
+    <col min="27" max="27" width="13.5703125" style="2" customWidth="1"/>
+    <col min="28" max="28" width="39.7109375" style="2" customWidth="1"/>
+    <col min="29" max="29" width="28.5703125" style="3" customWidth="1"/>
+    <col min="30" max="30" width="12.140625" style="3" customWidth="1"/>
+    <col min="31" max="31" width="8.28515625" style="3" customWidth="1"/>
+    <col min="32" max="32" width="11.28515625" style="3" customWidth="1"/>
+    <col min="33" max="33" width="38.85546875" style="2" customWidth="1"/>
+    <col min="34" max="16384" width="30.5703125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:32">
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+    </row>
+    <row r="2" spans="2:32">
+      <c r="B2" s="188" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="189"/>
+      <c r="I2" s="189"/>
+      <c r="J2" s="189"/>
+      <c r="K2" s="189"/>
+      <c r="L2" s="189"/>
+      <c r="M2" s="189"/>
+      <c r="N2" s="190" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="190"/>
+      <c r="P2" s="191"/>
+      <c r="Q2" s="192" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="193"/>
+      <c r="S2" s="193"/>
+      <c r="T2" s="193"/>
+      <c r="U2" s="193"/>
+      <c r="V2" s="193"/>
+      <c r="W2" s="193"/>
+      <c r="X2" s="193"/>
+      <c r="Y2" s="193"/>
+      <c r="Z2" s="193"/>
+      <c r="AA2" s="193"/>
+      <c r="AB2" s="194"/>
+      <c r="AC2" s="34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="2:32" ht="22.5">
+      <c r="B3" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="P3" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="T3" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="U3" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="V3" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="X3" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y3" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z3" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA3" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB3" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC3" s="54"/>
+    </row>
+    <row r="4" spans="2:32" s="65" customFormat="1" ht="12">
+      <c r="B4" s="79"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="O4" s="62"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R4" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="S4" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="T4" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="U4" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="V4" s="61"/>
+      <c r="W4" s="61" t="s">
+        <v>171</v>
+      </c>
+      <c r="X4" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y4" s="64">
+        <v>100</v>
+      </c>
+      <c r="Z4" s="64"/>
+      <c r="AA4" s="58"/>
+      <c r="AB4" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC4" s="64"/>
+    </row>
+    <row r="5" spans="2:32" s="71" customFormat="1" ht="12">
+      <c r="B5" s="79"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="66" t="s">
+        <v>105</v>
+      </c>
+      <c r="O5" s="62"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R5" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="S5" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="T5" s="72" t="s">
+        <v>86</v>
+      </c>
+      <c r="U5" s="72" t="s">
+        <v>86</v>
+      </c>
+      <c r="V5" s="61"/>
+      <c r="W5" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X5" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y5" s="64">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="64"/>
+      <c r="AA5" s="58"/>
+      <c r="AB5" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC5" s="64"/>
+    </row>
+    <row r="6" spans="2:32" s="74" customFormat="1">
+      <c r="B6" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="J6" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K6" s="58">
+        <v>1</v>
+      </c>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="O6" s="62"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R6" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="S6" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="T6" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="U6" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="V6" s="58"/>
+      <c r="W6" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X6" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y6" s="64">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="64"/>
+      <c r="AA6" s="58"/>
+      <c r="AB6" s="62" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC6" s="58"/>
+      <c r="AD6" s="73"/>
+      <c r="AE6" s="73"/>
+      <c r="AF6" s="73"/>
+    </row>
+    <row r="7" spans="2:32" s="74" customFormat="1" ht="24">
+      <c r="B7" s="79"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="O7" s="62"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R7" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="S7" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="T7" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="U7" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="V7" s="58"/>
+      <c r="W7" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X7" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y7" s="64">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="64"/>
+      <c r="AA7" s="58"/>
+      <c r="AB7" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC7" s="58"/>
+      <c r="AD7" s="73"/>
+      <c r="AE7" s="73"/>
+      <c r="AF7" s="73"/>
+    </row>
+    <row r="8" spans="2:32" s="71" customFormat="1" ht="12">
+      <c r="B8" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="J8" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K8" s="64">
+        <v>10</v>
+      </c>
+      <c r="L8" s="64"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="O8" s="62"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R8" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="S8" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="T8" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="U8" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="V8" s="61"/>
+      <c r="W8" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X8" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y8" s="64">
+        <v>10</v>
+      </c>
+      <c r="Z8" s="64"/>
+      <c r="AA8" s="58"/>
+      <c r="AB8" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC8" s="64"/>
+    </row>
+    <row r="9" spans="2:32" s="71" customFormat="1" ht="12">
+      <c r="B9" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" s="64">
+        <v>11</v>
+      </c>
+      <c r="L9" s="64"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="O9" s="62"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R9" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="S9" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="T9" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="U9" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="V9" s="61"/>
+      <c r="W9" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X9" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y9" s="64">
+        <v>11</v>
+      </c>
+      <c r="Z9" s="64"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC9" s="64"/>
+    </row>
+    <row r="10" spans="2:32" s="65" customFormat="1" ht="12">
+      <c r="B10" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" s="58">
+        <v>2</v>
+      </c>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="O10" s="62"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R10" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="S10" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="T10" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="U10" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="V10" s="61"/>
+      <c r="W10" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X10" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y10" s="58">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="64"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC10" s="58"/>
+    </row>
+    <row r="11" spans="2:32" s="71" customFormat="1" ht="12">
+      <c r="B11" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" s="64">
+        <v>4</v>
+      </c>
+      <c r="L11" s="64"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="O11" s="62"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R11" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="S11" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="T11" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="U11" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="V11" s="61"/>
+      <c r="W11" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X11" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y11" s="64">
+        <v>4</v>
+      </c>
+      <c r="Z11" s="64"/>
+      <c r="AA11" s="58"/>
+      <c r="AB11" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC11" s="64"/>
+    </row>
+    <row r="12" spans="2:32" s="65" customFormat="1" ht="12">
+      <c r="B12" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="K12" s="58">
+        <v>4</v>
+      </c>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="O12" s="62"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R12" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="S12" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="T12" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="U12" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="V12" s="61"/>
+      <c r="W12" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X12" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y12" s="58">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="64"/>
+      <c r="AA12" s="58"/>
+      <c r="AB12" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC12" s="58"/>
+    </row>
+    <row r="13" spans="2:32" s="73" customFormat="1">
+      <c r="B13" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K13" s="58">
+        <v>1</v>
+      </c>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="O13" s="62"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R13" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="S13" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="T13" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="U13" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="V13" s="58"/>
+      <c r="W13" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X13" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y13" s="58">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="64"/>
+      <c r="AA13" s="58"/>
+      <c r="AB13" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC13" s="58"/>
+    </row>
+    <row r="14" spans="2:32" s="74" customFormat="1">
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="O14" s="62"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R14" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="S14" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="T14" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="U14" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="V14" s="58"/>
+      <c r="W14" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X14" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y14" s="64">
+        <v>3</v>
+      </c>
+      <c r="Z14" s="64"/>
+      <c r="AA14" s="58"/>
+      <c r="AB14" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC14" s="58"/>
+      <c r="AD14" s="73"/>
+      <c r="AE14" s="73"/>
+      <c r="AF14" s="73"/>
+    </row>
+    <row r="15" spans="2:32" s="74" customFormat="1">
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="81"/>
+      <c r="N15" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="O15" s="62"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R15" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="S15" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="T15" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="U15" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="V15" s="58"/>
+      <c r="W15" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X15" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y15" s="64">
+        <v>6</v>
+      </c>
+      <c r="Z15" s="64">
+        <v>2</v>
+      </c>
+      <c r="AA15" s="58"/>
+      <c r="AB15" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC15" s="58"/>
+      <c r="AD15" s="73"/>
+      <c r="AE15" s="73"/>
+      <c r="AF15" s="73"/>
+    </row>
+    <row r="16" spans="2:32" s="73" customFormat="1">
+      <c r="B16" s="79"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="O16" s="62"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R16" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="S16" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="T16" s="72" t="s">
+        <v>93</v>
+      </c>
+      <c r="U16" s="72" t="s">
+        <v>93</v>
+      </c>
+      <c r="V16" s="58"/>
+      <c r="W16" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X16" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y16" s="64"/>
+      <c r="Z16" s="64"/>
+      <c r="AA16" s="58"/>
+      <c r="AB16" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC16" s="58"/>
+    </row>
+    <row r="17" spans="2:32" s="74" customFormat="1">
+      <c r="B17" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="J17" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="K17" s="58">
+        <v>12</v>
+      </c>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="O17" s="62"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R17" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="S17" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="T17" s="72" t="s">
+        <v>94</v>
+      </c>
+      <c r="U17" s="72" t="s">
+        <v>94</v>
+      </c>
+      <c r="V17" s="58"/>
+      <c r="W17" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X17" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y17" s="58">
+        <v>12</v>
+      </c>
+      <c r="Z17" s="58"/>
+      <c r="AA17" s="58"/>
+      <c r="AB17" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC17" s="58"/>
+      <c r="AD17" s="73"/>
+      <c r="AE17" s="73"/>
+      <c r="AF17" s="73"/>
+    </row>
+    <row r="18" spans="2:32" s="74" customFormat="1" ht="24">
+      <c r="B18" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="J18" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="K18" s="58">
+        <v>8</v>
+      </c>
+      <c r="L18" s="58">
+        <v>2</v>
+      </c>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="O18" s="62"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R18" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="S18" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="T18" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="U18" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="V18" s="58"/>
+      <c r="W18" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X18" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y18" s="58">
+        <v>8</v>
+      </c>
+      <c r="Z18" s="58">
+        <v>2</v>
+      </c>
+      <c r="AA18" s="58"/>
+      <c r="AB18" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC18" s="58"/>
+      <c r="AD18" s="73"/>
+      <c r="AE18" s="73"/>
+      <c r="AF18" s="73"/>
+    </row>
+    <row r="19" spans="2:32" s="74" customFormat="1">
+      <c r="B19" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="J19" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K19" s="58">
+        <v>5</v>
+      </c>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="O19" s="62"/>
+      <c r="P19" s="63"/>
+      <c r="Q19" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R19" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="S19" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="T19" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="U19" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="V19" s="58"/>
+      <c r="W19" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X19" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y19" s="58">
+        <v>5</v>
+      </c>
+      <c r="Z19" s="58"/>
+      <c r="AA19" s="58"/>
+      <c r="AB19" s="62" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC19" s="58"/>
+      <c r="AD19" s="73"/>
+      <c r="AE19" s="73"/>
+      <c r="AF19" s="73"/>
+    </row>
+    <row r="20" spans="2:32" s="74" customFormat="1">
+      <c r="B20" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="J20" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K20" s="58">
+        <v>10</v>
+      </c>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="O20" s="62"/>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R20" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="S20" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="T20" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="U20" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="V20" s="58"/>
+      <c r="W20" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X20" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y20" s="58">
+        <v>10</v>
+      </c>
+      <c r="Z20" s="58"/>
+      <c r="AA20" s="58"/>
+      <c r="AB20" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC20" s="58"/>
+      <c r="AD20" s="73"/>
+      <c r="AE20" s="73"/>
+      <c r="AF20" s="73"/>
+    </row>
+    <row r="21" spans="2:32" s="74" customFormat="1">
+      <c r="B21" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="J21" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K21" s="58">
+        <v>2</v>
+      </c>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="O21" s="62"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R21" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="S21" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="T21" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="U21" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="V21" s="58"/>
+      <c r="W21" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X21" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y21" s="58">
+        <v>2</v>
+      </c>
+      <c r="Z21" s="58"/>
+      <c r="AA21" s="58"/>
+      <c r="AB21" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC21" s="58"/>
+      <c r="AD21" s="73"/>
+      <c r="AE21" s="73"/>
+      <c r="AF21" s="73"/>
+    </row>
+    <row r="22" spans="2:32" s="74" customFormat="1">
+      <c r="B22" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="J22" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K22" s="58">
+        <v>15</v>
+      </c>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="O22" s="62"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R22" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="S22" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="T22" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="U22" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="V22" s="58"/>
+      <c r="W22" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X22" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y22" s="58">
+        <v>15</v>
+      </c>
+      <c r="Z22" s="58"/>
+      <c r="AA22" s="58"/>
+      <c r="AB22" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC22" s="58"/>
+      <c r="AD22" s="73"/>
+      <c r="AE22" s="73"/>
+      <c r="AF22" s="73"/>
+    </row>
+    <row r="23" spans="2:32" s="74" customFormat="1">
+      <c r="B23" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="J23" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K23" s="58">
+        <v>2</v>
+      </c>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="O23" s="62"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R23" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="S23" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="T23" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="U23" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="V23" s="58"/>
+      <c r="W23" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X23" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y23" s="58">
+        <v>2</v>
+      </c>
+      <c r="Z23" s="58"/>
+      <c r="AA23" s="58"/>
+      <c r="AB23" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC23" s="58"/>
+      <c r="AD23" s="73"/>
+      <c r="AE23" s="73"/>
+      <c r="AF23" s="73"/>
+    </row>
+    <row r="24" spans="2:32" s="74" customFormat="1" ht="24">
+      <c r="B24" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="J24" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K24" s="58">
+        <v>5</v>
+      </c>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="O24" s="62"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R24" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="S24" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="T24" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="U24" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="V24" s="58"/>
+      <c r="W24" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X24" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y24" s="58">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="58"/>
+      <c r="AA24" s="58"/>
+      <c r="AB24" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC24" s="58"/>
+      <c r="AD24" s="73"/>
+      <c r="AE24" s="73"/>
+      <c r="AF24" s="73"/>
+    </row>
+    <row r="25" spans="2:32" s="74" customFormat="1">
+      <c r="B25" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="J25" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="K25" s="58">
+        <v>10</v>
+      </c>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="O25" s="62"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R25" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="S25" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="T25" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="U25" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="V25" s="58"/>
+      <c r="W25" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X25" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y25" s="58">
+        <v>10</v>
+      </c>
+      <c r="Z25" s="58"/>
+      <c r="AA25" s="58"/>
+      <c r="AB25" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC25" s="58"/>
+      <c r="AD25" s="73"/>
+      <c r="AE25" s="73"/>
+      <c r="AF25" s="73"/>
+    </row>
+    <row r="26" spans="2:32" s="71" customFormat="1" ht="324">
+      <c r="B26" s="79"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="81"/>
+      <c r="N26" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="O26" s="62"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="R26" s="59" t="s">
+        <v>187</v>
+      </c>
+      <c r="S26" s="59" t="s">
+        <v>187</v>
+      </c>
+      <c r="T26" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="U26" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="V26" s="61"/>
+      <c r="W26" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X26" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y26" s="64">
+        <v>30</v>
+      </c>
+      <c r="Z26" s="64"/>
+      <c r="AA26" s="58"/>
+      <c r="AB26" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC26" s="58"/>
+    </row>
+    <row r="27" spans="2:32" s="74" customFormat="1" ht="36">
+      <c r="B27" s="79"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="81"/>
+      <c r="N27" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="O27" s="62"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R27" s="59" t="s">
+        <v>187</v>
+      </c>
+      <c r="S27" s="59" t="s">
+        <v>187</v>
+      </c>
+      <c r="T27" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="U27" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="V27" s="58"/>
+      <c r="W27" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X27" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y27" s="64">
+        <v>15</v>
+      </c>
+      <c r="Z27" s="64"/>
+      <c r="AA27" s="58"/>
+      <c r="AB27" s="62" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC27" s="58"/>
+      <c r="AD27" s="73"/>
+      <c r="AE27" s="73"/>
+      <c r="AF27" s="73"/>
+    </row>
+    <row r="28" spans="2:32" s="74" customFormat="1">
+      <c r="B28" s="80"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="O28" s="62"/>
+      <c r="P28" s="62"/>
+      <c r="Q28" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R28" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="S28" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="T28" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="U28" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="V28" s="58"/>
+      <c r="W28" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X28" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y28" s="64">
+        <v>6</v>
+      </c>
+      <c r="Z28" s="64">
+        <v>2</v>
+      </c>
+      <c r="AA28" s="58"/>
+      <c r="AB28" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC28" s="58"/>
+      <c r="AD28" s="73"/>
+      <c r="AE28" s="73"/>
+      <c r="AF28" s="73"/>
+    </row>
+    <row r="29" spans="2:32">
+      <c r="B29" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="G29" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="H29" s="90"/>
+      <c r="I29" s="90" t="s">
+        <v>109</v>
+      </c>
+      <c r="J29" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K29" s="58">
+        <v>1</v>
+      </c>
+      <c r="L29" s="91"/>
+      <c r="M29" s="90"/>
+      <c r="N29" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="O29" s="108"/>
+      <c r="P29" s="108"/>
+      <c r="Q29" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R29" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="S29" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="T29" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="U29" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="V29" s="58"/>
+      <c r="W29" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X29" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y29" s="58">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="64"/>
+      <c r="AA29" s="58"/>
+      <c r="AB29" s="58"/>
+      <c r="AC29" s="58"/>
+    </row>
+    <row r="30" spans="2:32">
+      <c r="B30" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="G30" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="H30" s="90"/>
+      <c r="I30" s="90" t="s">
+        <v>109</v>
+      </c>
+      <c r="J30" s="91" t="s">
+        <v>108</v>
+      </c>
+      <c r="K30" s="91">
+        <v>3</v>
+      </c>
+      <c r="L30" s="91"/>
+      <c r="M30" s="90"/>
+      <c r="N30" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="O30" s="108"/>
+      <c r="P30" s="108"/>
+      <c r="Q30" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R30" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="S30" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="T30" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="U30" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="V30" s="58"/>
+      <c r="W30" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X30" s="91" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y30" s="91">
+        <v>3</v>
+      </c>
+      <c r="Z30" s="64"/>
+      <c r="AA30" s="58"/>
+      <c r="AB30" s="58"/>
+      <c r="AC30" s="58"/>
+    </row>
+    <row r="31" spans="2:32">
+      <c r="B31" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="G31" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="H31" s="90"/>
+      <c r="I31" s="90" t="s">
+        <v>109</v>
+      </c>
+      <c r="J31" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K31" s="58">
+        <v>10</v>
+      </c>
+      <c r="L31" s="91"/>
+      <c r="M31" s="90"/>
+      <c r="N31" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="O31" s="108"/>
+      <c r="P31" s="108"/>
+      <c r="Q31" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R31" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="S31" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="T31" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="U31" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="V31" s="58"/>
+      <c r="W31" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="X31" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y31" s="58">
+        <v>10</v>
+      </c>
+      <c r="Z31" s="64"/>
+      <c r="AA31" s="58"/>
+      <c r="AB31" s="58"/>
+      <c r="AC31" s="58"/>
+    </row>
+    <row r="32" spans="2:32" s="71" customFormat="1">
+      <c r="B32" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="G32" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="J32" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="K32" s="58">
+        <v>6</v>
+      </c>
+      <c r="L32" s="58"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="O32" s="62"/>
+      <c r="P32" s="62"/>
+      <c r="Q32" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R32" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="S32" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="T32" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="U32" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="V32" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="W32" s="91"/>
+      <c r="X32" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y32" s="58">
+        <v>6</v>
+      </c>
+      <c r="Z32" s="64"/>
+      <c r="AA32" s="58"/>
+      <c r="AB32" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC32" s="58"/>
+    </row>
+    <row r="33" spans="2:34" s="6" customFormat="1">
+      <c r="B33" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="78" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="78" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" s="92" t="s">
+        <v>172</v>
+      </c>
+      <c r="G33" s="92" t="s">
+        <v>172</v>
+      </c>
+      <c r="H33" s="91"/>
+      <c r="I33" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="J33" s="92" t="s">
+        <v>106</v>
+      </c>
+      <c r="K33" s="91"/>
+      <c r="L33" s="91"/>
+      <c r="M33" s="91"/>
+      <c r="N33" s="93" t="s">
+        <v>157</v>
+      </c>
+      <c r="O33" s="91"/>
+      <c r="P33" s="91"/>
+      <c r="Q33" s="94" t="s">
+        <v>120</v>
+      </c>
+      <c r="R33" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="S33" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="T33" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="U33" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="V33" s="95"/>
+      <c r="W33" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="X33" s="92" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y33" s="91"/>
+      <c r="Z33" s="91"/>
+      <c r="AA33" s="91"/>
+      <c r="AB33" s="91"/>
+      <c r="AC33" s="91"/>
+      <c r="AD33" s="96"/>
+      <c r="AE33" s="96"/>
+      <c r="AF33" s="96"/>
+      <c r="AG33" s="96"/>
+      <c r="AH33" s="96"/>
+    </row>
+    <row r="34" spans="2:34" s="6" customFormat="1">
+      <c r="B34" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" s="78" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="78" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="G34" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="H34" s="91"/>
+      <c r="I34" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="J34" s="92" t="s">
+        <v>106</v>
+      </c>
+      <c r="K34" s="91"/>
+      <c r="L34" s="91"/>
+      <c r="M34" s="91"/>
+      <c r="N34" s="93" t="s">
+        <v>157</v>
+      </c>
+      <c r="O34" s="91"/>
+      <c r="P34" s="91"/>
+      <c r="Q34" s="94" t="s">
+        <v>120</v>
+      </c>
+      <c r="R34" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="S34" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="T34" s="58" t="s">
+        <v>173</v>
+      </c>
+      <c r="U34" s="58" t="s">
+        <v>173</v>
+      </c>
+      <c r="V34" s="95"/>
+      <c r="W34" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="X34" s="92" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y34" s="91"/>
+      <c r="Z34" s="91"/>
+      <c r="AA34" s="91"/>
+      <c r="AB34" s="91"/>
+      <c r="AC34" s="91"/>
+      <c r="AD34" s="96"/>
+      <c r="AE34" s="96"/>
+      <c r="AF34" s="96"/>
+      <c r="AG34" s="96"/>
+      <c r="AH34" s="96"/>
+    </row>
+    <row r="35" spans="2:34">
+      <c r="B35" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F35" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="G35" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="H35" s="90"/>
+      <c r="I35" s="90" t="s">
+        <v>109</v>
+      </c>
+      <c r="J35" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K35" s="58">
+        <v>1</v>
+      </c>
+      <c r="L35" s="91"/>
+      <c r="M35" s="90"/>
+      <c r="N35" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="O35" s="108"/>
+      <c r="P35" s="108"/>
+      <c r="Q35" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R35" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="S35" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="T35" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="U35" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="V35" s="58"/>
+      <c r="W35" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="X35" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y35" s="58">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="64"/>
+      <c r="AA35" s="58"/>
+      <c r="AB35" s="58"/>
+      <c r="AC35" s="58"/>
+    </row>
+    <row r="36" spans="2:34">
+      <c r="B36" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F36" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="G36" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="H36" s="90"/>
+      <c r="I36" s="90" t="s">
+        <v>109</v>
+      </c>
+      <c r="J36" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K36" s="58">
+        <v>1</v>
+      </c>
+      <c r="L36" s="91"/>
+      <c r="M36" s="90"/>
+      <c r="N36" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="O36" s="108"/>
+      <c r="P36" s="108"/>
+      <c r="Q36" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R36" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="S36" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="T36" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="U36" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="V36" s="58"/>
+      <c r="W36" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="X36" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y36" s="58">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="64"/>
+      <c r="AA36" s="58"/>
+      <c r="AB36" s="58"/>
+      <c r="AC36" s="58"/>
+    </row>
+    <row r="37" spans="2:34">
+      <c r="B37" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F37" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="G37" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="H37" s="90"/>
+      <c r="I37" s="90" t="s">
+        <v>109</v>
+      </c>
+      <c r="J37" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="K37" s="91">
+        <v>3</v>
+      </c>
+      <c r="L37" s="91"/>
+      <c r="M37" s="90"/>
+      <c r="N37" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="O37" s="108"/>
+      <c r="P37" s="108"/>
+      <c r="Q37" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R37" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="S37" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="T37" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="U37" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="V37" s="58"/>
+      <c r="W37" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="X37" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y37" s="91">
+        <v>3</v>
+      </c>
+      <c r="Z37" s="64"/>
+      <c r="AA37" s="58"/>
+      <c r="AB37" s="58"/>
+      <c r="AC37" s="58"/>
+    </row>
+    <row r="38" spans="2:34">
+      <c r="B38" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F38" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="G38" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="H38" s="90"/>
+      <c r="I38" s="90" t="s">
+        <v>109</v>
+      </c>
+      <c r="J38" s="91" t="s">
+        <v>106</v>
+      </c>
+      <c r="K38" s="91"/>
+      <c r="L38" s="91"/>
+      <c r="M38" s="90"/>
+      <c r="N38" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="O38" s="108"/>
+      <c r="P38" s="108"/>
+      <c r="Q38" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R38" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="S38" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="T38" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="U38" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="V38" s="58"/>
+      <c r="W38" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="X38" s="91" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y38" s="91"/>
+      <c r="Z38" s="64"/>
+      <c r="AA38" s="58"/>
+      <c r="AB38" s="58"/>
+      <c r="AC38" s="58"/>
+    </row>
+    <row r="39" spans="2:34">
+      <c r="B39" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="G39" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="H39" s="90"/>
+      <c r="I39" s="90" t="s">
+        <v>109</v>
+      </c>
+      <c r="J39" s="91" t="s">
+        <v>106</v>
+      </c>
+      <c r="K39" s="91"/>
+      <c r="L39" s="91"/>
+      <c r="M39" s="90"/>
+      <c r="N39" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="O39" s="108"/>
+      <c r="P39" s="108"/>
+      <c r="Q39" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R39" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="S39" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="T39" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="U39" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="V39" s="58"/>
+      <c r="W39" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="X39" s="91" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y39" s="91"/>
+      <c r="Z39" s="64"/>
+      <c r="AA39" s="58"/>
+      <c r="AB39" s="58"/>
+      <c r="AC39" s="58"/>
+    </row>
+    <row r="40" spans="2:34">
+      <c r="B40" s="97" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" s="141" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="99" t="s">
+        <v>99</v>
+      </c>
+      <c r="E40" s="99" t="s">
+        <v>99</v>
+      </c>
+      <c r="F40" s="100" t="s">
+        <v>166</v>
+      </c>
+      <c r="G40" s="100" t="s">
+        <v>166</v>
+      </c>
+      <c r="H40" s="101"/>
+      <c r="I40" s="101" t="s">
+        <v>109</v>
+      </c>
+      <c r="J40" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="K40" s="99">
+        <v>1</v>
+      </c>
+      <c r="L40" s="102"/>
+      <c r="M40" s="101"/>
+      <c r="N40" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="O40" s="108"/>
+      <c r="P40" s="108"/>
+      <c r="Q40" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R40" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="S40" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="T40" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="U40" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="V40" s="58"/>
+      <c r="W40" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="X40" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y40" s="99">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="64"/>
+      <c r="AA40" s="58"/>
+      <c r="AB40" s="58"/>
+      <c r="AC40" s="58"/>
+    </row>
+    <row r="41" spans="2:34">
+      <c r="B41" s="103"/>
+      <c r="C41" s="103"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="104"/>
+      <c r="G41" s="103"/>
+      <c r="H41" s="103"/>
+      <c r="I41" s="103"/>
+      <c r="J41" s="105"/>
+      <c r="K41" s="105"/>
+      <c r="L41" s="105"/>
+      <c r="M41" s="103"/>
+      <c r="N41" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="O41" s="108"/>
+      <c r="P41" s="108"/>
+      <c r="Q41" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R41" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="S41" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="T41" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="U41" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="V41" s="90"/>
+      <c r="W41" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="X41" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y41" s="91">
+        <v>2</v>
+      </c>
+      <c r="Z41" s="106"/>
+      <c r="AA41" s="90"/>
+      <c r="AB41" s="90"/>
+      <c r="AC41" s="90"/>
+    </row>
+    <row r="42" spans="2:34">
+      <c r="B42" s="103"/>
+      <c r="C42" s="103"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="103"/>
+      <c r="H42" s="103"/>
+      <c r="I42" s="103"/>
+      <c r="J42" s="105"/>
+      <c r="K42" s="105"/>
+      <c r="L42" s="105"/>
+      <c r="M42" s="103"/>
+      <c r="N42" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="O42" s="108"/>
+      <c r="P42" s="108"/>
+      <c r="Q42" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R42" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="S42" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="T42" s="58" t="s">
+        <v>177</v>
+      </c>
+      <c r="U42" s="58" t="s">
+        <v>177</v>
+      </c>
+      <c r="V42" s="90"/>
+      <c r="W42" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="X42" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y42" s="91">
+        <v>2</v>
+      </c>
+      <c r="Z42" s="106"/>
+      <c r="AA42" s="90"/>
+      <c r="AB42" s="90"/>
+      <c r="AC42" s="90"/>
+    </row>
+    <row r="43" spans="2:34">
+      <c r="B43" s="103"/>
+      <c r="C43" s="103"/>
+      <c r="D43" s="104"/>
+      <c r="E43" s="104"/>
+      <c r="F43" s="104"/>
+      <c r="G43" s="103"/>
+      <c r="H43" s="103"/>
+      <c r="I43" s="103"/>
+      <c r="J43" s="105"/>
+      <c r="K43" s="105"/>
+      <c r="L43" s="105"/>
+      <c r="M43" s="103"/>
+      <c r="N43" s="58"/>
+      <c r="O43" s="108"/>
+      <c r="P43" s="108"/>
+      <c r="Q43" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R43" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="S43" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="T43" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="U43" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="V43" s="90"/>
+      <c r="W43" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="X43" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y43" s="91"/>
+      <c r="Z43" s="106"/>
+      <c r="AA43" s="90"/>
+      <c r="AB43" s="90"/>
+      <c r="AC43" s="90"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+  </mergeCells>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="2" width="2.7109375" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AF13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="11.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="24.28515625" style="46" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="57.28515625" style="47" customWidth="1"/>
+    <col min="15" max="16" width="29.85546875" style="47" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" style="47" customWidth="1"/>
+    <col min="18" max="19" width="24.140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.85546875" style="47" customWidth="1"/>
+    <col min="21" max="21" width="22.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5703125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="10.28515625" style="56" customWidth="1"/>
+    <col min="26" max="26" width="13.5703125" style="57" customWidth="1"/>
+    <col min="27" max="27" width="13.5703125" style="2" customWidth="1"/>
+    <col min="28" max="28" width="39.7109375" style="2" customWidth="1"/>
+    <col min="29" max="29" width="28.5703125" style="3" customWidth="1"/>
+    <col min="30" max="30" width="12.140625" style="3" customWidth="1"/>
+    <col min="31" max="31" width="8.28515625" style="3" customWidth="1"/>
+    <col min="32" max="32" width="11.28515625" style="3" customWidth="1"/>
+    <col min="33" max="33" width="38.85546875" style="2" customWidth="1"/>
+    <col min="34" max="16384" width="30.5703125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32">
+      <c r="A1" s="120"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+    </row>
+    <row r="2" spans="1:32" ht="25.5" customHeight="1">
+      <c r="B2" s="188" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="189"/>
+      <c r="I2" s="189"/>
+      <c r="J2" s="189"/>
+      <c r="K2" s="189"/>
+      <c r="L2" s="189"/>
+      <c r="M2" s="189"/>
+      <c r="N2" s="190" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="190"/>
+      <c r="P2" s="191"/>
+      <c r="Q2" s="192" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="193"/>
+      <c r="S2" s="193"/>
+      <c r="T2" s="193"/>
+      <c r="U2" s="193"/>
+      <c r="V2" s="193"/>
+      <c r="W2" s="193"/>
+      <c r="X2" s="193"/>
+      <c r="Y2" s="193"/>
+      <c r="Z2" s="193"/>
+      <c r="AA2" s="193"/>
+      <c r="AB2" s="194"/>
+      <c r="AC2" s="34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="22.5">
+      <c r="B3" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="P3" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="T3" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="U3" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="V3" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="X3" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y3" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z3" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA3" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB3" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC3" s="54"/>
+    </row>
+    <row r="4" spans="1:32" s="116" customFormat="1">
+      <c r="B4" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118" t="s">
+        <v>171</v>
+      </c>
+      <c r="J4" s="118" t="s">
+        <v>110</v>
+      </c>
+      <c r="K4" s="118">
+        <v>100</v>
+      </c>
+      <c r="L4" s="118"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="201" t="s">
+        <v>188</v>
+      </c>
+      <c r="O4" s="195"/>
+      <c r="P4" s="195"/>
+      <c r="Q4" s="204" t="s">
+        <v>120</v>
+      </c>
+      <c r="R4" s="207" t="s">
+        <v>187</v>
+      </c>
+      <c r="S4" s="207" t="s">
+        <v>187</v>
+      </c>
+      <c r="T4" s="204" t="s">
+        <v>177</v>
+      </c>
+      <c r="U4" s="204" t="s">
+        <v>177</v>
+      </c>
+      <c r="V4" s="195"/>
+      <c r="W4" s="210" t="s">
+        <v>171</v>
+      </c>
+      <c r="X4" s="204" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y4" s="210">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="195"/>
+      <c r="AA4" s="195"/>
+      <c r="AB4" s="195"/>
+      <c r="AC4" s="198"/>
+      <c r="AD4" s="117"/>
+      <c r="AE4" s="117"/>
+      <c r="AF4" s="117"/>
+    </row>
+    <row r="5" spans="1:32" ht="12.75" customHeight="1">
+      <c r="B5" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>177</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>177</v>
+      </c>
+      <c r="H5" s="107"/>
+      <c r="I5" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="J5" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="K5" s="91">
+        <v>2</v>
+      </c>
+      <c r="L5" s="106"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="202"/>
+      <c r="O5" s="196"/>
+      <c r="P5" s="196"/>
+      <c r="Q5" s="205"/>
+      <c r="R5" s="208"/>
+      <c r="S5" s="208"/>
+      <c r="T5" s="205"/>
+      <c r="U5" s="205"/>
+      <c r="V5" s="196"/>
+      <c r="W5" s="211"/>
+      <c r="X5" s="205"/>
+      <c r="Y5" s="211"/>
+      <c r="Z5" s="196"/>
+      <c r="AA5" s="196"/>
+      <c r="AB5" s="196"/>
+      <c r="AC5" s="199"/>
+    </row>
+    <row r="6" spans="1:32">
+      <c r="B6" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F6" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="G6" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="H6" s="58"/>
+      <c r="I6" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J6" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K6" s="58">
+        <v>1</v>
+      </c>
+      <c r="L6" s="64"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="202"/>
+      <c r="O6" s="196"/>
+      <c r="P6" s="196"/>
+      <c r="Q6" s="205"/>
+      <c r="R6" s="208"/>
+      <c r="S6" s="208"/>
+      <c r="T6" s="205"/>
+      <c r="U6" s="205"/>
+      <c r="V6" s="196"/>
+      <c r="W6" s="211"/>
+      <c r="X6" s="205"/>
+      <c r="Y6" s="211"/>
+      <c r="Z6" s="196"/>
+      <c r="AA6" s="196"/>
+      <c r="AB6" s="196"/>
+      <c r="AC6" s="199"/>
+    </row>
+    <row r="7" spans="1:32">
+      <c r="B7" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F7" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="G7" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="H7" s="58"/>
+      <c r="I7" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J7" s="91" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="91">
+        <v>3</v>
+      </c>
+      <c r="L7" s="64"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="202"/>
+      <c r="O7" s="196"/>
+      <c r="P7" s="196"/>
+      <c r="Q7" s="205"/>
+      <c r="R7" s="208"/>
+      <c r="S7" s="208"/>
+      <c r="T7" s="205"/>
+      <c r="U7" s="205"/>
+      <c r="V7" s="196"/>
+      <c r="W7" s="211"/>
+      <c r="X7" s="205"/>
+      <c r="Y7" s="211"/>
+      <c r="Z7" s="196"/>
+      <c r="AA7" s="196"/>
+      <c r="AB7" s="196"/>
+      <c r="AC7" s="199"/>
+    </row>
+    <row r="8" spans="1:32">
+      <c r="B8" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="H8" s="58"/>
+      <c r="I8" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="J8" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K8" s="58">
+        <v>1</v>
+      </c>
+      <c r="L8" s="64"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="202"/>
+      <c r="O8" s="196"/>
+      <c r="P8" s="196"/>
+      <c r="Q8" s="205"/>
+      <c r="R8" s="208"/>
+      <c r="S8" s="208"/>
+      <c r="T8" s="205"/>
+      <c r="U8" s="205"/>
+      <c r="V8" s="196"/>
+      <c r="W8" s="211"/>
+      <c r="X8" s="205"/>
+      <c r="Y8" s="211"/>
+      <c r="Z8" s="196"/>
+      <c r="AA8" s="196"/>
+      <c r="AB8" s="196"/>
+      <c r="AC8" s="199"/>
+    </row>
+    <row r="9" spans="1:32">
+      <c r="B9" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="G9" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="H9" s="58"/>
+      <c r="I9" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" s="58">
+        <v>1</v>
+      </c>
+      <c r="L9" s="64"/>
+      <c r="M9" s="107"/>
+      <c r="N9" s="202"/>
+      <c r="O9" s="196"/>
+      <c r="P9" s="196"/>
+      <c r="Q9" s="205"/>
+      <c r="R9" s="208"/>
+      <c r="S9" s="208"/>
+      <c r="T9" s="205"/>
+      <c r="U9" s="205"/>
+      <c r="V9" s="196"/>
+      <c r="W9" s="211"/>
+      <c r="X9" s="205"/>
+      <c r="Y9" s="211"/>
+      <c r="Z9" s="196"/>
+      <c r="AA9" s="196"/>
+      <c r="AB9" s="196"/>
+      <c r="AC9" s="199"/>
+    </row>
+    <row r="10" spans="1:32">
+      <c r="B10" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="E10" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F10" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="G10" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="H10" s="58"/>
+      <c r="I10" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" s="91">
+        <v>3</v>
+      </c>
+      <c r="L10" s="64"/>
+      <c r="M10" s="107"/>
+      <c r="N10" s="202"/>
+      <c r="O10" s="196"/>
+      <c r="P10" s="196"/>
+      <c r="Q10" s="205"/>
+      <c r="R10" s="208"/>
+      <c r="S10" s="208"/>
+      <c r="T10" s="205"/>
+      <c r="U10" s="205"/>
+      <c r="V10" s="196"/>
+      <c r="W10" s="211"/>
+      <c r="X10" s="205"/>
+      <c r="Y10" s="211"/>
+      <c r="Z10" s="196"/>
+      <c r="AA10" s="196"/>
+      <c r="AB10" s="196"/>
+      <c r="AC10" s="199"/>
+    </row>
+    <row r="11" spans="1:32" s="71" customFormat="1" ht="12" customHeight="1">
+      <c r="B11" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="E11" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F11" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" s="64">
+        <v>11</v>
+      </c>
+      <c r="L11" s="64"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="202"/>
+      <c r="O11" s="196"/>
+      <c r="P11" s="196"/>
+      <c r="Q11" s="205"/>
+      <c r="R11" s="208"/>
+      <c r="S11" s="208"/>
+      <c r="T11" s="205"/>
+      <c r="U11" s="205"/>
+      <c r="V11" s="196"/>
+      <c r="W11" s="211"/>
+      <c r="X11" s="205"/>
+      <c r="Y11" s="211"/>
+      <c r="Z11" s="196"/>
+      <c r="AA11" s="196"/>
+      <c r="AB11" s="196"/>
+      <c r="AC11" s="199"/>
+    </row>
+    <row r="12" spans="1:32">
+      <c r="B12" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="G12" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="H12" s="58"/>
+      <c r="I12" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K12" s="58">
+        <v>1</v>
+      </c>
+      <c r="L12" s="64"/>
+      <c r="M12" s="107"/>
+      <c r="N12" s="203"/>
+      <c r="O12" s="197"/>
+      <c r="P12" s="197"/>
+      <c r="Q12" s="206"/>
+      <c r="R12" s="209"/>
+      <c r="S12" s="209"/>
+      <c r="T12" s="206"/>
+      <c r="U12" s="206"/>
+      <c r="V12" s="197"/>
+      <c r="W12" s="212"/>
+      <c r="X12" s="206"/>
+      <c r="Y12" s="212"/>
+      <c r="Z12" s="197"/>
+      <c r="AA12" s="197"/>
+      <c r="AB12" s="197"/>
+      <c r="AC12" s="200"/>
+    </row>
+    <row r="13" spans="1:32" ht="84">
+      <c r="B13" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F13" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="90"/>
+      <c r="I13" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K13" s="58">
+        <v>1</v>
+      </c>
+      <c r="L13" s="91"/>
+      <c r="M13" s="90"/>
+      <c r="N13" s="109" t="s">
+        <v>186</v>
+      </c>
+      <c r="O13" s="108"/>
+      <c r="P13" s="108"/>
+      <c r="Q13" s="108" t="s">
+        <v>120</v>
+      </c>
+      <c r="R13" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="S13" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="T13" s="72" t="s">
+        <v>185</v>
+      </c>
+      <c r="U13" s="72" t="s">
+        <v>185</v>
+      </c>
+      <c r="V13" s="90"/>
+      <c r="W13" s="113" t="s">
+        <v>171</v>
+      </c>
+      <c r="X13" s="113" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y13" s="114">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="106"/>
+      <c r="AA13" s="90"/>
+      <c r="AB13" s="90"/>
+      <c r="AC13" s="90"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="AA4:AA12"/>
+    <mergeCell ref="AB4:AB12"/>
+    <mergeCell ref="AC4:AC12"/>
+    <mergeCell ref="U4:U12"/>
+    <mergeCell ref="V4:V12"/>
+    <mergeCell ref="W4:W12"/>
+    <mergeCell ref="X4:X12"/>
+    <mergeCell ref="Y4:Y12"/>
+    <mergeCell ref="Z4:Z12"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="N4:N12"/>
+    <mergeCell ref="O4:O12"/>
+    <mergeCell ref="P4:P12"/>
+    <mergeCell ref="Q4:Q12"/>
+    <mergeCell ref="R4:R12"/>
+    <mergeCell ref="S4:S12"/>
+    <mergeCell ref="T4:T12"/>
+  </mergeCells>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AF17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="11.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="24.28515625" style="46" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="57.28515625" style="47" customWidth="1"/>
+    <col min="15" max="16" width="29.85546875" style="47" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" style="47" customWidth="1"/>
+    <col min="18" max="19" width="24.140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.85546875" style="47" customWidth="1"/>
+    <col min="21" max="21" width="22.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5703125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="10.28515625" style="56" customWidth="1"/>
+    <col min="26" max="26" width="13.5703125" style="57" customWidth="1"/>
+    <col min="27" max="27" width="13.5703125" style="2" customWidth="1"/>
+    <col min="28" max="28" width="39.7109375" style="2" customWidth="1"/>
+    <col min="29" max="29" width="28.5703125" style="3" customWidth="1"/>
+    <col min="30" max="30" width="12.140625" style="3" customWidth="1"/>
+    <col min="31" max="31" width="8.28515625" style="3" customWidth="1"/>
+    <col min="32" max="32" width="11.28515625" style="3" customWidth="1"/>
+    <col min="33" max="33" width="38.85546875" style="2" customWidth="1"/>
+    <col min="34" max="16384" width="30.5703125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32">
+      <c r="A1" s="120"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+    </row>
+    <row r="2" spans="1:32" ht="25.5" customHeight="1">
+      <c r="B2" s="188" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="189"/>
+      <c r="I2" s="189"/>
+      <c r="J2" s="189"/>
+      <c r="K2" s="189"/>
+      <c r="L2" s="189"/>
+      <c r="M2" s="189"/>
+      <c r="N2" s="190" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="190"/>
+      <c r="P2" s="191"/>
+      <c r="Q2" s="192" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="193"/>
+      <c r="S2" s="193"/>
+      <c r="T2" s="193"/>
+      <c r="U2" s="193"/>
+      <c r="V2" s="193"/>
+      <c r="W2" s="193"/>
+      <c r="X2" s="193"/>
+      <c r="Y2" s="193"/>
+      <c r="Z2" s="193"/>
+      <c r="AA2" s="193"/>
+      <c r="AB2" s="194"/>
+      <c r="AC2" s="34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="22.5">
+      <c r="B3" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="P3" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="T3" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="U3" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="V3" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="X3" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y3" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z3" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA3" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB3" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC3" s="54"/>
+    </row>
+    <row r="4" spans="1:32" s="116" customFormat="1">
+      <c r="B4" s="126"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="126"/>
+      <c r="M4" s="126"/>
+      <c r="N4" s="137" t="s">
+        <v>192</v>
+      </c>
+      <c r="O4" s="132"/>
+      <c r="P4" s="132"/>
+      <c r="Q4" s="128"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="128"/>
+      <c r="T4" s="132" t="s">
+        <v>193</v>
+      </c>
+      <c r="U4" s="118" t="s">
+        <v>193</v>
+      </c>
+      <c r="V4" s="118"/>
+      <c r="W4" s="118"/>
+      <c r="X4" s="118" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y4" s="128"/>
+      <c r="Z4" s="128"/>
+      <c r="AA4" s="129"/>
+      <c r="AB4" s="129"/>
+      <c r="AC4" s="130"/>
+      <c r="AD4" s="117"/>
+      <c r="AE4" s="117"/>
+      <c r="AF4" s="117"/>
+    </row>
+    <row r="5" spans="1:32" s="116" customFormat="1" ht="73.5" customHeight="1">
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="126"/>
+      <c r="M5" s="126"/>
+      <c r="N5" s="137" t="s">
+        <v>197</v>
+      </c>
+      <c r="O5" s="132"/>
+      <c r="P5" s="132"/>
+      <c r="Q5" s="128"/>
+      <c r="R5" s="128"/>
+      <c r="S5" s="128"/>
+      <c r="T5" s="132" t="s">
+        <v>196</v>
+      </c>
+      <c r="U5" s="118" t="s">
+        <v>196</v>
+      </c>
+      <c r="V5" s="118"/>
+      <c r="W5" s="118"/>
+      <c r="X5" s="118"/>
+      <c r="Y5" s="128"/>
+      <c r="Z5" s="128"/>
+      <c r="AA5" s="129"/>
+      <c r="AB5" s="129"/>
+      <c r="AC5" s="130"/>
+      <c r="AD5" s="117"/>
+      <c r="AE5" s="117"/>
+      <c r="AF5" s="117"/>
+    </row>
+    <row r="6" spans="1:32" s="116" customFormat="1">
+      <c r="B6" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F6" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118" t="s">
+        <v>171</v>
+      </c>
+      <c r="J6" s="118" t="s">
+        <v>110</v>
+      </c>
+      <c r="K6" s="118">
+        <v>100</v>
+      </c>
+      <c r="L6" s="118"/>
+      <c r="M6" s="118"/>
+      <c r="N6" s="201" t="s">
+        <v>191</v>
+      </c>
+      <c r="O6" s="195"/>
+      <c r="P6" s="195"/>
+      <c r="Q6" s="213" t="s">
+        <v>120</v>
+      </c>
+      <c r="R6" s="216" t="s">
+        <v>187</v>
+      </c>
+      <c r="S6" s="216" t="s">
+        <v>187</v>
+      </c>
+      <c r="T6" s="213" t="s">
+        <v>177</v>
+      </c>
+      <c r="U6" s="213" t="s">
+        <v>177</v>
+      </c>
+      <c r="V6" s="219"/>
+      <c r="W6" s="222" t="s">
+        <v>171</v>
+      </c>
+      <c r="X6" s="213" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y6" s="225">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="195"/>
+      <c r="AA6" s="195"/>
+      <c r="AB6" s="195"/>
+      <c r="AC6" s="198"/>
+      <c r="AD6" s="117"/>
+      <c r="AE6" s="117"/>
+      <c r="AF6" s="117"/>
+    </row>
+    <row r="7" spans="1:32" ht="12.75" customHeight="1">
+      <c r="B7" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>177</v>
+      </c>
+      <c r="H7" s="107"/>
+      <c r="I7" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="J7" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="K7" s="91">
+        <v>2</v>
+      </c>
+      <c r="L7" s="106"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="202"/>
+      <c r="O7" s="196"/>
+      <c r="P7" s="196"/>
+      <c r="Q7" s="214"/>
+      <c r="R7" s="217"/>
+      <c r="S7" s="217"/>
+      <c r="T7" s="214"/>
+      <c r="U7" s="214"/>
+      <c r="V7" s="220"/>
+      <c r="W7" s="223"/>
+      <c r="X7" s="214"/>
+      <c r="Y7" s="226"/>
+      <c r="Z7" s="196"/>
+      <c r="AA7" s="196"/>
+      <c r="AB7" s="196"/>
+      <c r="AC7" s="199"/>
+    </row>
+    <row r="8" spans="1:32">
+      <c r="B8" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="G8" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="H8" s="58"/>
+      <c r="I8" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J8" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K8" s="58">
+        <v>1</v>
+      </c>
+      <c r="L8" s="64"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="202"/>
+      <c r="O8" s="196"/>
+      <c r="P8" s="196"/>
+      <c r="Q8" s="214"/>
+      <c r="R8" s="217"/>
+      <c r="S8" s="217"/>
+      <c r="T8" s="214"/>
+      <c r="U8" s="214"/>
+      <c r="V8" s="220"/>
+      <c r="W8" s="223"/>
+      <c r="X8" s="214"/>
+      <c r="Y8" s="226"/>
+      <c r="Z8" s="196"/>
+      <c r="AA8" s="196"/>
+      <c r="AB8" s="196"/>
+      <c r="AC8" s="199"/>
+    </row>
+    <row r="9" spans="1:32">
+      <c r="B9" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="G9" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="H9" s="58"/>
+      <c r="I9" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" s="91" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" s="91">
+        <v>3</v>
+      </c>
+      <c r="L9" s="64"/>
+      <c r="M9" s="107"/>
+      <c r="N9" s="202"/>
+      <c r="O9" s="196"/>
+      <c r="P9" s="196"/>
+      <c r="Q9" s="214"/>
+      <c r="R9" s="217"/>
+      <c r="S9" s="217"/>
+      <c r="T9" s="214"/>
+      <c r="U9" s="214"/>
+      <c r="V9" s="220"/>
+      <c r="W9" s="223"/>
+      <c r="X9" s="214"/>
+      <c r="Y9" s="226"/>
+      <c r="Z9" s="196"/>
+      <c r="AA9" s="196"/>
+      <c r="AB9" s="196"/>
+      <c r="AC9" s="199"/>
+    </row>
+    <row r="10" spans="1:32">
+      <c r="B10" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="E10" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F10" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="G10" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="H10" s="58"/>
+      <c r="I10" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" s="58">
+        <v>1</v>
+      </c>
+      <c r="L10" s="64"/>
+      <c r="M10" s="107"/>
+      <c r="N10" s="202"/>
+      <c r="O10" s="196"/>
+      <c r="P10" s="196"/>
+      <c r="Q10" s="214"/>
+      <c r="R10" s="217"/>
+      <c r="S10" s="217"/>
+      <c r="T10" s="214"/>
+      <c r="U10" s="214"/>
+      <c r="V10" s="220"/>
+      <c r="W10" s="223"/>
+      <c r="X10" s="214"/>
+      <c r="Y10" s="226"/>
+      <c r="Z10" s="196"/>
+      <c r="AA10" s="196"/>
+      <c r="AB10" s="196"/>
+      <c r="AC10" s="199"/>
+    </row>
+    <row r="11" spans="1:32">
+      <c r="B11" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="E11" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F11" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="G11" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="H11" s="58"/>
+      <c r="I11" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" s="58">
+        <v>1</v>
+      </c>
+      <c r="L11" s="64"/>
+      <c r="M11" s="107"/>
+      <c r="N11" s="202"/>
+      <c r="O11" s="196"/>
+      <c r="P11" s="196"/>
+      <c r="Q11" s="214"/>
+      <c r="R11" s="217"/>
+      <c r="S11" s="217"/>
+      <c r="T11" s="214"/>
+      <c r="U11" s="214"/>
+      <c r="V11" s="220"/>
+      <c r="W11" s="223"/>
+      <c r="X11" s="214"/>
+      <c r="Y11" s="226"/>
+      <c r="Z11" s="196"/>
+      <c r="AA11" s="196"/>
+      <c r="AB11" s="196"/>
+      <c r="AC11" s="199"/>
+    </row>
+    <row r="12" spans="1:32">
+      <c r="B12" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="G12" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="H12" s="58"/>
+      <c r="I12" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="K12" s="91">
+        <v>3</v>
+      </c>
+      <c r="L12" s="64"/>
+      <c r="M12" s="107"/>
+      <c r="N12" s="202"/>
+      <c r="O12" s="196"/>
+      <c r="P12" s="196"/>
+      <c r="Q12" s="214"/>
+      <c r="R12" s="217"/>
+      <c r="S12" s="217"/>
+      <c r="T12" s="214"/>
+      <c r="U12" s="214"/>
+      <c r="V12" s="220"/>
+      <c r="W12" s="223"/>
+      <c r="X12" s="214"/>
+      <c r="Y12" s="226"/>
+      <c r="Z12" s="196"/>
+      <c r="AA12" s="196"/>
+      <c r="AB12" s="196"/>
+      <c r="AC12" s="199"/>
+    </row>
+    <row r="13" spans="1:32" s="71" customFormat="1" ht="12" customHeight="1">
+      <c r="B13" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F13" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K13" s="64">
+        <v>11</v>
+      </c>
+      <c r="L13" s="64"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="202"/>
+      <c r="O13" s="196"/>
+      <c r="P13" s="196"/>
+      <c r="Q13" s="214"/>
+      <c r="R13" s="217"/>
+      <c r="S13" s="217"/>
+      <c r="T13" s="214"/>
+      <c r="U13" s="214"/>
+      <c r="V13" s="220"/>
+      <c r="W13" s="223"/>
+      <c r="X13" s="214"/>
+      <c r="Y13" s="226"/>
+      <c r="Z13" s="196"/>
+      <c r="AA13" s="196"/>
+      <c r="AB13" s="196"/>
+      <c r="AC13" s="199"/>
+    </row>
+    <row r="14" spans="1:32">
+      <c r="B14" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="E14" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="G14" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="H14" s="58"/>
+      <c r="I14" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="J14" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K14" s="58">
+        <v>1</v>
+      </c>
+      <c r="L14" s="64"/>
+      <c r="M14" s="107"/>
+      <c r="N14" s="203"/>
+      <c r="O14" s="197"/>
+      <c r="P14" s="197"/>
+      <c r="Q14" s="215"/>
+      <c r="R14" s="218"/>
+      <c r="S14" s="218"/>
+      <c r="T14" s="215"/>
+      <c r="U14" s="215"/>
+      <c r="V14" s="221"/>
+      <c r="W14" s="224"/>
+      <c r="X14" s="215"/>
+      <c r="Y14" s="227"/>
+      <c r="Z14" s="197"/>
+      <c r="AA14" s="197"/>
+      <c r="AB14" s="197"/>
+      <c r="AC14" s="200"/>
+    </row>
+    <row r="15" spans="1:32">
+      <c r="B15" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="E15" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F15" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="118"/>
+      <c r="I15" s="118" t="s">
+        <v>171</v>
+      </c>
+      <c r="J15" s="118" t="s">
+        <v>110</v>
+      </c>
+      <c r="K15" s="118">
+        <v>100</v>
+      </c>
+      <c r="L15" s="118"/>
+      <c r="M15" s="118"/>
+      <c r="N15" s="135" t="s">
+        <v>189</v>
+      </c>
+      <c r="O15" s="133"/>
+      <c r="P15" s="133"/>
+      <c r="Q15" s="136" t="s">
+        <v>120</v>
+      </c>
+      <c r="R15" s="142" t="s">
+        <v>187</v>
+      </c>
+      <c r="S15" s="142" t="s">
+        <v>187</v>
+      </c>
+      <c r="T15" s="136" t="s">
+        <v>81</v>
+      </c>
+      <c r="U15" s="136" t="s">
+        <v>81</v>
+      </c>
+      <c r="V15" s="138"/>
+      <c r="W15" s="139" t="s">
+        <v>171</v>
+      </c>
+      <c r="X15" s="136" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y15" s="140">
+        <v>100</v>
+      </c>
+      <c r="Z15" s="133"/>
+      <c r="AA15" s="133"/>
+      <c r="AB15" s="133"/>
+      <c r="AC15" s="134"/>
+    </row>
+    <row r="16" spans="1:32">
+      <c r="B16" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="E16" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F16" s="72" t="s">
+        <v>176</v>
+      </c>
+      <c r="G16" s="72" t="s">
+        <v>176</v>
+      </c>
+      <c r="H16" s="118"/>
+      <c r="I16" s="118" t="s">
+        <v>171</v>
+      </c>
+      <c r="J16" s="118" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="118">
+        <v>2</v>
+      </c>
+      <c r="L16" s="118"/>
+      <c r="M16" s="118"/>
+      <c r="N16" s="135" t="s">
+        <v>190</v>
+      </c>
+      <c r="O16" s="133"/>
+      <c r="P16" s="133"/>
+      <c r="Q16" s="136" t="s">
+        <v>120</v>
+      </c>
+      <c r="R16" s="142" t="s">
+        <v>187</v>
+      </c>
+      <c r="S16" s="142" t="s">
+        <v>187</v>
+      </c>
+      <c r="T16" s="136" t="s">
+        <v>176</v>
+      </c>
+      <c r="U16" s="136" t="s">
+        <v>176</v>
+      </c>
+      <c r="V16" s="138"/>
+      <c r="W16" s="139" t="s">
+        <v>171</v>
+      </c>
+      <c r="X16" s="136" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y16" s="140">
+        <v>2</v>
+      </c>
+      <c r="Z16" s="133"/>
+      <c r="AA16" s="133"/>
+      <c r="AB16" s="133"/>
+      <c r="AC16" s="134"/>
+    </row>
+    <row r="17" spans="2:29" ht="84">
+      <c r="B17" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="E17" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="90"/>
+      <c r="I17" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="J17" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K17" s="58">
+        <v>1</v>
+      </c>
+      <c r="L17" s="91"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="109" t="s">
+        <v>186</v>
+      </c>
+      <c r="O17" s="108"/>
+      <c r="P17" s="108"/>
+      <c r="Q17" s="113" t="s">
+        <v>120</v>
+      </c>
+      <c r="R17" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="S17" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="T17" s="72" t="s">
+        <v>185</v>
+      </c>
+      <c r="U17" s="72" t="s">
+        <v>185</v>
+      </c>
+      <c r="V17" s="113"/>
+      <c r="W17" s="113" t="s">
+        <v>171</v>
+      </c>
+      <c r="X17" s="113" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y17" s="125">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="106"/>
+      <c r="AA17" s="90"/>
+      <c r="AB17" s="90"/>
+      <c r="AC17" s="90"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="AA6:AA14"/>
+    <mergeCell ref="AB6:AB14"/>
+    <mergeCell ref="AC6:AC14"/>
+    <mergeCell ref="U6:U14"/>
+    <mergeCell ref="V6:V14"/>
+    <mergeCell ref="W6:W14"/>
+    <mergeCell ref="X6:X14"/>
+    <mergeCell ref="Y6:Y14"/>
+    <mergeCell ref="Z6:Z14"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="N6:N14"/>
+    <mergeCell ref="O6:O14"/>
+    <mergeCell ref="P6:P14"/>
+    <mergeCell ref="Q6:Q14"/>
+    <mergeCell ref="R6:R14"/>
+    <mergeCell ref="S6:S14"/>
+    <mergeCell ref="T6:T14"/>
+  </mergeCells>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AF17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="11.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="24.28515625" style="46" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="57.28515625" style="47" customWidth="1"/>
+    <col min="15" max="16" width="29.85546875" style="47" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" style="47" customWidth="1"/>
+    <col min="18" max="19" width="24.140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.85546875" style="47" customWidth="1"/>
+    <col min="21" max="21" width="22.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5703125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="10.28515625" style="56" customWidth="1"/>
+    <col min="26" max="26" width="13.5703125" style="57" customWidth="1"/>
+    <col min="27" max="27" width="13.5703125" style="2" customWidth="1"/>
+    <col min="28" max="28" width="39.7109375" style="2" customWidth="1"/>
+    <col min="29" max="29" width="28.5703125" style="3" customWidth="1"/>
+    <col min="30" max="30" width="12.140625" style="3" customWidth="1"/>
+    <col min="31" max="31" width="8.28515625" style="3" customWidth="1"/>
+    <col min="32" max="32" width="11.28515625" style="3" customWidth="1"/>
+    <col min="33" max="33" width="38.85546875" style="2" customWidth="1"/>
+    <col min="34" max="16384" width="30.5703125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32">
+      <c r="A1" s="120"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+    </row>
+    <row r="2" spans="1:32" ht="25.5" customHeight="1">
+      <c r="B2" s="188" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="189"/>
+      <c r="I2" s="189"/>
+      <c r="J2" s="189"/>
+      <c r="K2" s="189"/>
+      <c r="L2" s="189"/>
+      <c r="M2" s="189"/>
+      <c r="N2" s="190" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="190"/>
+      <c r="P2" s="191"/>
+      <c r="Q2" s="192" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="193"/>
+      <c r="S2" s="193"/>
+      <c r="T2" s="193"/>
+      <c r="U2" s="193"/>
+      <c r="V2" s="193"/>
+      <c r="W2" s="193"/>
+      <c r="X2" s="193"/>
+      <c r="Y2" s="193"/>
+      <c r="Z2" s="193"/>
+      <c r="AA2" s="193"/>
+      <c r="AB2" s="194"/>
+      <c r="AC2" s="34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="22.5">
+      <c r="B3" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="P3" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="T3" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="U3" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="V3" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="X3" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y3" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z3" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA3" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB3" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC3" s="54"/>
+    </row>
+    <row r="4" spans="1:32" s="116" customFormat="1">
+      <c r="B4" s="126"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="126"/>
+      <c r="M4" s="126"/>
+      <c r="N4" s="137" t="s">
+        <v>195</v>
+      </c>
+      <c r="O4" s="132"/>
+      <c r="P4" s="132"/>
+      <c r="Q4" s="128"/>
+      <c r="R4" s="128"/>
+      <c r="S4" s="128"/>
+      <c r="T4" s="132" t="s">
+        <v>194</v>
+      </c>
+      <c r="U4" s="118" t="s">
+        <v>194</v>
+      </c>
+      <c r="V4" s="118"/>
+      <c r="W4" s="118"/>
+      <c r="X4" s="118" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y4" s="128"/>
+      <c r="Z4" s="128"/>
+      <c r="AA4" s="129"/>
+      <c r="AB4" s="129"/>
+      <c r="AC4" s="130"/>
+      <c r="AD4" s="117"/>
+      <c r="AE4" s="117"/>
+      <c r="AF4" s="117"/>
+    </row>
+    <row r="5" spans="1:32" s="116" customFormat="1" ht="73.5" customHeight="1">
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="126"/>
+      <c r="M5" s="126"/>
+      <c r="N5" s="137" t="s">
+        <v>197</v>
+      </c>
+      <c r="O5" s="132"/>
+      <c r="P5" s="132"/>
+      <c r="Q5" s="128"/>
+      <c r="R5" s="128"/>
+      <c r="S5" s="128"/>
+      <c r="T5" s="132" t="s">
+        <v>196</v>
+      </c>
+      <c r="U5" s="118" t="s">
+        <v>196</v>
+      </c>
+      <c r="V5" s="118"/>
+      <c r="W5" s="118"/>
+      <c r="X5" s="118"/>
+      <c r="Y5" s="128"/>
+      <c r="Z5" s="128"/>
+      <c r="AA5" s="129"/>
+      <c r="AB5" s="129"/>
+      <c r="AC5" s="130"/>
+      <c r="AD5" s="117"/>
+      <c r="AE5" s="117"/>
+      <c r="AF5" s="117"/>
+    </row>
+    <row r="6" spans="1:32" s="116" customFormat="1">
+      <c r="B6" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F6" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118" t="s">
+        <v>171</v>
+      </c>
+      <c r="J6" s="118" t="s">
+        <v>110</v>
+      </c>
+      <c r="K6" s="118">
+        <v>100</v>
+      </c>
+      <c r="L6" s="118"/>
+      <c r="M6" s="118"/>
+      <c r="N6" s="201" t="s">
+        <v>198</v>
+      </c>
+      <c r="O6" s="195"/>
+      <c r="P6" s="195"/>
+      <c r="Q6" s="213" t="s">
+        <v>120</v>
+      </c>
+      <c r="R6" s="216" t="s">
+        <v>187</v>
+      </c>
+      <c r="S6" s="216" t="s">
+        <v>187</v>
+      </c>
+      <c r="T6" s="213" t="s">
+        <v>177</v>
+      </c>
+      <c r="U6" s="213" t="s">
+        <v>177</v>
+      </c>
+      <c r="V6" s="219"/>
+      <c r="W6" s="222" t="s">
+        <v>171</v>
+      </c>
+      <c r="X6" s="213" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y6" s="225">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="195"/>
+      <c r="AA6" s="195"/>
+      <c r="AB6" s="195"/>
+      <c r="AC6" s="198"/>
+      <c r="AD6" s="117"/>
+      <c r="AE6" s="117"/>
+      <c r="AF6" s="117"/>
+    </row>
+    <row r="7" spans="1:32" ht="12.75" customHeight="1">
+      <c r="B7" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>177</v>
+      </c>
+      <c r="H7" s="107"/>
+      <c r="I7" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="J7" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="K7" s="91">
+        <v>2</v>
+      </c>
+      <c r="L7" s="106"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="202"/>
+      <c r="O7" s="196"/>
+      <c r="P7" s="196"/>
+      <c r="Q7" s="214"/>
+      <c r="R7" s="217"/>
+      <c r="S7" s="217"/>
+      <c r="T7" s="214"/>
+      <c r="U7" s="214"/>
+      <c r="V7" s="220"/>
+      <c r="W7" s="223"/>
+      <c r="X7" s="214"/>
+      <c r="Y7" s="226"/>
+      <c r="Z7" s="196"/>
+      <c r="AA7" s="196"/>
+      <c r="AB7" s="196"/>
+      <c r="AC7" s="199"/>
+    </row>
+    <row r="8" spans="1:32">
+      <c r="B8" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="G8" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="H8" s="58"/>
+      <c r="I8" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J8" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K8" s="58">
+        <v>1</v>
+      </c>
+      <c r="L8" s="64"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="202"/>
+      <c r="O8" s="196"/>
+      <c r="P8" s="196"/>
+      <c r="Q8" s="214"/>
+      <c r="R8" s="217"/>
+      <c r="S8" s="217"/>
+      <c r="T8" s="214"/>
+      <c r="U8" s="214"/>
+      <c r="V8" s="220"/>
+      <c r="W8" s="223"/>
+      <c r="X8" s="214"/>
+      <c r="Y8" s="226"/>
+      <c r="Z8" s="196"/>
+      <c r="AA8" s="196"/>
+      <c r="AB8" s="196"/>
+      <c r="AC8" s="199"/>
+    </row>
+    <row r="9" spans="1:32">
+      <c r="B9" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="G9" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="H9" s="58"/>
+      <c r="I9" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" s="91" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" s="91">
+        <v>3</v>
+      </c>
+      <c r="L9" s="64"/>
+      <c r="M9" s="107"/>
+      <c r="N9" s="202"/>
+      <c r="O9" s="196"/>
+      <c r="P9" s="196"/>
+      <c r="Q9" s="214"/>
+      <c r="R9" s="217"/>
+      <c r="S9" s="217"/>
+      <c r="T9" s="214"/>
+      <c r="U9" s="214"/>
+      <c r="V9" s="220"/>
+      <c r="W9" s="223"/>
+      <c r="X9" s="214"/>
+      <c r="Y9" s="226"/>
+      <c r="Z9" s="196"/>
+      <c r="AA9" s="196"/>
+      <c r="AB9" s="196"/>
+      <c r="AC9" s="199"/>
+    </row>
+    <row r="10" spans="1:32">
+      <c r="B10" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="E10" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F10" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="G10" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="H10" s="58"/>
+      <c r="I10" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" s="58">
+        <v>1</v>
+      </c>
+      <c r="L10" s="64"/>
+      <c r="M10" s="107"/>
+      <c r="N10" s="202"/>
+      <c r="O10" s="196"/>
+      <c r="P10" s="196"/>
+      <c r="Q10" s="214"/>
+      <c r="R10" s="217"/>
+      <c r="S10" s="217"/>
+      <c r="T10" s="214"/>
+      <c r="U10" s="214"/>
+      <c r="V10" s="220"/>
+      <c r="W10" s="223"/>
+      <c r="X10" s="214"/>
+      <c r="Y10" s="226"/>
+      <c r="Z10" s="196"/>
+      <c r="AA10" s="196"/>
+      <c r="AB10" s="196"/>
+      <c r="AC10" s="199"/>
+    </row>
+    <row r="11" spans="1:32">
+      <c r="B11" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="E11" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F11" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="G11" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="H11" s="58"/>
+      <c r="I11" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" s="58">
+        <v>1</v>
+      </c>
+      <c r="L11" s="64"/>
+      <c r="M11" s="107"/>
+      <c r="N11" s="202"/>
+      <c r="O11" s="196"/>
+      <c r="P11" s="196"/>
+      <c r="Q11" s="214"/>
+      <c r="R11" s="217"/>
+      <c r="S11" s="217"/>
+      <c r="T11" s="214"/>
+      <c r="U11" s="214"/>
+      <c r="V11" s="220"/>
+      <c r="W11" s="223"/>
+      <c r="X11" s="214"/>
+      <c r="Y11" s="226"/>
+      <c r="Z11" s="196"/>
+      <c r="AA11" s="196"/>
+      <c r="AB11" s="196"/>
+      <c r="AC11" s="199"/>
+    </row>
+    <row r="12" spans="1:32">
+      <c r="B12" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="G12" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="H12" s="58"/>
+      <c r="I12" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="K12" s="91">
+        <v>3</v>
+      </c>
+      <c r="L12" s="64"/>
+      <c r="M12" s="107"/>
+      <c r="N12" s="202"/>
+      <c r="O12" s="196"/>
+      <c r="P12" s="196"/>
+      <c r="Q12" s="214"/>
+      <c r="R12" s="217"/>
+      <c r="S12" s="217"/>
+      <c r="T12" s="214"/>
+      <c r="U12" s="214"/>
+      <c r="V12" s="220"/>
+      <c r="W12" s="223"/>
+      <c r="X12" s="214"/>
+      <c r="Y12" s="226"/>
+      <c r="Z12" s="196"/>
+      <c r="AA12" s="196"/>
+      <c r="AB12" s="196"/>
+      <c r="AC12" s="199"/>
+    </row>
+    <row r="13" spans="1:32" s="71" customFormat="1" ht="12" customHeight="1">
+      <c r="B13" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F13" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K13" s="64">
+        <v>11</v>
+      </c>
+      <c r="L13" s="64"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="202"/>
+      <c r="O13" s="196"/>
+      <c r="P13" s="196"/>
+      <c r="Q13" s="214"/>
+      <c r="R13" s="217"/>
+      <c r="S13" s="217"/>
+      <c r="T13" s="214"/>
+      <c r="U13" s="214"/>
+      <c r="V13" s="220"/>
+      <c r="W13" s="223"/>
+      <c r="X13" s="214"/>
+      <c r="Y13" s="226"/>
+      <c r="Z13" s="196"/>
+      <c r="AA13" s="196"/>
+      <c r="AB13" s="196"/>
+      <c r="AC13" s="199"/>
+    </row>
+    <row r="14" spans="1:32">
+      <c r="B14" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="E14" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="G14" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="H14" s="58"/>
+      <c r="I14" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="J14" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K14" s="58">
+        <v>1</v>
+      </c>
+      <c r="L14" s="64"/>
+      <c r="M14" s="107"/>
+      <c r="N14" s="203"/>
+      <c r="O14" s="197"/>
+      <c r="P14" s="197"/>
+      <c r="Q14" s="215"/>
+      <c r="R14" s="218"/>
+      <c r="S14" s="218"/>
+      <c r="T14" s="215"/>
+      <c r="U14" s="215"/>
+      <c r="V14" s="221"/>
+      <c r="W14" s="224"/>
+      <c r="X14" s="215"/>
+      <c r="Y14" s="227"/>
+      <c r="Z14" s="197"/>
+      <c r="AA14" s="197"/>
+      <c r="AB14" s="197"/>
+      <c r="AC14" s="200"/>
+    </row>
+    <row r="15" spans="1:32">
+      <c r="B15" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="E15" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F15" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="118"/>
+      <c r="I15" s="118" t="s">
+        <v>171</v>
+      </c>
+      <c r="J15" s="118" t="s">
+        <v>110</v>
+      </c>
+      <c r="K15" s="118">
+        <v>100</v>
+      </c>
+      <c r="L15" s="118"/>
+      <c r="M15" s="118"/>
+      <c r="N15" s="135" t="s">
+        <v>189</v>
+      </c>
+      <c r="O15" s="133"/>
+      <c r="P15" s="133"/>
+      <c r="Q15" s="136" t="s">
+        <v>120</v>
+      </c>
+      <c r="R15" s="142" t="s">
+        <v>187</v>
+      </c>
+      <c r="S15" s="142" t="s">
+        <v>187</v>
+      </c>
+      <c r="T15" s="136" t="s">
+        <v>81</v>
+      </c>
+      <c r="U15" s="136" t="s">
+        <v>81</v>
+      </c>
+      <c r="V15" s="138"/>
+      <c r="W15" s="139" t="s">
+        <v>171</v>
+      </c>
+      <c r="X15" s="136" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y15" s="140">
+        <v>100</v>
+      </c>
+      <c r="Z15" s="133"/>
+      <c r="AA15" s="133"/>
+      <c r="AB15" s="133"/>
+      <c r="AC15" s="134"/>
+    </row>
+    <row r="16" spans="1:32">
+      <c r="B16" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="E16" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F16" s="72" t="s">
+        <v>176</v>
+      </c>
+      <c r="G16" s="72" t="s">
+        <v>176</v>
+      </c>
+      <c r="H16" s="118"/>
+      <c r="I16" s="118" t="s">
+        <v>171</v>
+      </c>
+      <c r="J16" s="118" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="118">
+        <v>2</v>
+      </c>
+      <c r="L16" s="118"/>
+      <c r="M16" s="118"/>
+      <c r="N16" s="135" t="s">
+        <v>190</v>
+      </c>
+      <c r="O16" s="133"/>
+      <c r="P16" s="133"/>
+      <c r="Q16" s="136" t="s">
+        <v>120</v>
+      </c>
+      <c r="R16" s="142" t="s">
+        <v>187</v>
+      </c>
+      <c r="S16" s="142" t="s">
+        <v>187</v>
+      </c>
+      <c r="T16" s="136" t="s">
+        <v>176</v>
+      </c>
+      <c r="U16" s="136" t="s">
+        <v>176</v>
+      </c>
+      <c r="V16" s="138"/>
+      <c r="W16" s="139" t="s">
+        <v>171</v>
+      </c>
+      <c r="X16" s="136" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y16" s="140">
+        <v>2</v>
+      </c>
+      <c r="Z16" s="133"/>
+      <c r="AA16" s="133"/>
+      <c r="AB16" s="133"/>
+      <c r="AC16" s="134"/>
+    </row>
+    <row r="17" spans="2:29" ht="84">
+      <c r="B17" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="E17" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="90"/>
+      <c r="I17" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="J17" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K17" s="58">
+        <v>1</v>
+      </c>
+      <c r="L17" s="91"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="109" t="s">
+        <v>186</v>
+      </c>
+      <c r="O17" s="108"/>
+      <c r="P17" s="108"/>
+      <c r="Q17" s="113" t="s">
+        <v>120</v>
+      </c>
+      <c r="R17" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="S17" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="T17" s="72" t="s">
+        <v>185</v>
+      </c>
+      <c r="U17" s="72" t="s">
+        <v>185</v>
+      </c>
+      <c r="V17" s="113"/>
+      <c r="W17" s="113" t="s">
+        <v>171</v>
+      </c>
+      <c r="X17" s="113" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y17" s="125">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="106"/>
+      <c r="AA17" s="90"/>
+      <c r="AB17" s="90"/>
+      <c r="AC17" s="90"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="AA6:AA14"/>
+    <mergeCell ref="AB6:AB14"/>
+    <mergeCell ref="AC6:AC14"/>
+    <mergeCell ref="U6:U14"/>
+    <mergeCell ref="V6:V14"/>
+    <mergeCell ref="W6:W14"/>
+    <mergeCell ref="X6:X14"/>
+    <mergeCell ref="Y6:Y14"/>
+    <mergeCell ref="Z6:Z14"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="N6:N14"/>
+    <mergeCell ref="O6:O14"/>
+    <mergeCell ref="P6:P14"/>
+    <mergeCell ref="Q6:Q14"/>
+    <mergeCell ref="R6:R14"/>
+    <mergeCell ref="S6:S14"/>
+    <mergeCell ref="T6:T14"/>
+  </mergeCells>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:Y23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="1.85546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="97.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:25">
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+    </row>
+    <row r="2" spans="2:25">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+    </row>
+    <row r="3" spans="2:25" ht="18">
+      <c r="C3" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+    </row>
+    <row r="4" spans="2:25">
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+    </row>
+    <row r="6" spans="2:25">
+      <c r="B6" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" ht="25.5">
+      <c r="B7" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" ht="25.5">
+      <c r="B8" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" ht="25.5">
+      <c r="B9" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" ht="25.5">
+      <c r="B10" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" ht="25.5">
+      <c r="B11" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" ht="25.5">
+      <c r="B12" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" ht="25.5">
+      <c r="B13" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" ht="25.5">
+      <c r="B14" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" ht="25.5">
+      <c r="B15" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" ht="25.5">
+      <c r="B16" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="25.5">
+      <c r="B17" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="25.5">
+      <c r="B18" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="25.5">
+      <c r="B19" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="25.5">
+      <c r="B20" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="25.5">
+      <c r="B21" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="25.5">
+      <c r="B22" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="25.5">
+      <c r="B23" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="91" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -3445,17 +10283,17 @@
     </row>
     <row r="5" spans="2:10" ht="13.5" thickTop="1"/>
     <row r="6" spans="2:10">
-      <c r="B6" s="162" t="s">
+      <c r="B6" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="162"/>
-      <c r="D6" s="162"/>
-      <c r="E6" s="162"/>
-      <c r="F6" s="162"/>
-      <c r="G6" s="162"/>
-      <c r="H6" s="162"/>
-      <c r="I6" s="162"/>
-      <c r="J6" s="162"/>
+      <c r="C6" s="170"/>
+      <c r="D6" s="170"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="170"/>
+      <c r="J6" s="170"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="44" t="s">
@@ -3464,41 +10302,41 @@
       <c r="C7" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="162" t="s">
+      <c r="D7" s="170" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="162"/>
-      <c r="F7" s="162"/>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
-      <c r="J7" s="162"/>
+      <c r="E7" s="170"/>
+      <c r="F7" s="170"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="170"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="170"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="76" t="s">
         <v>115</v>
       </c>
       <c r="C8" s="45"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="168"/>
-      <c r="H8" s="168"/>
-      <c r="I8" s="168"/>
-      <c r="J8" s="168"/>
+      <c r="D8" s="171"/>
+      <c r="E8" s="171"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="171"/>
+      <c r="H8" s="171"/>
+      <c r="I8" s="171"/>
+      <c r="J8" s="171"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="76" t="s">
         <v>118</v>
       </c>
       <c r="C9" s="45"/>
-      <c r="D9" s="174"/>
-      <c r="E9" s="175"/>
-      <c r="F9" s="175"/>
-      <c r="G9" s="175"/>
-      <c r="H9" s="175"/>
-      <c r="I9" s="175"/>
-      <c r="J9" s="175"/>
+      <c r="D9" s="179"/>
+      <c r="E9" s="180"/>
+      <c r="F9" s="180"/>
+      <c r="G9" s="180"/>
+      <c r="H9" s="180"/>
+      <c r="I9" s="180"/>
+      <c r="J9" s="180"/>
     </row>
     <row r="10" spans="2:10" ht="13.5" thickBot="1">
       <c r="B10" s="5"/>
@@ -3512,17 +10350,17 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="153" t="s">
+      <c r="B11" s="173" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="154"/>
-      <c r="D11" s="154"/>
-      <c r="E11" s="154"/>
-      <c r="F11" s="154"/>
-      <c r="G11" s="154"/>
-      <c r="H11" s="154"/>
-      <c r="I11" s="154"/>
-      <c r="J11" s="154"/>
+      <c r="C11" s="174"/>
+      <c r="D11" s="174"/>
+      <c r="E11" s="174"/>
+      <c r="F11" s="174"/>
+      <c r="G11" s="174"/>
+      <c r="H11" s="174"/>
+      <c r="I11" s="174"/>
+      <c r="J11" s="174"/>
     </row>
     <row r="12" spans="2:10" ht="23.25" customHeight="1">
       <c r="B12" s="40" t="s">
@@ -3534,16 +10372,16 @@
       <c r="D12" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="170" t="s">
+      <c r="E12" s="175" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="172"/>
-      <c r="G12" s="170" t="s">
+      <c r="F12" s="177"/>
+      <c r="G12" s="175" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="171"/>
-      <c r="I12" s="171"/>
-      <c r="J12" s="172"/>
+      <c r="H12" s="176"/>
+      <c r="I12" s="176"/>
+      <c r="J12" s="177"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="77" t="s">
@@ -3553,12 +10391,12 @@
       <c r="D13" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E13" s="163"/>
-      <c r="F13" s="164"/>
-      <c r="G13" s="173"/>
-      <c r="H13" s="173"/>
-      <c r="I13" s="173"/>
-      <c r="J13" s="173"/>
+      <c r="E13" s="165"/>
+      <c r="F13" s="166"/>
+      <c r="G13" s="178"/>
+      <c r="H13" s="178"/>
+      <c r="I13" s="178"/>
+      <c r="J13" s="178"/>
     </row>
     <row r="14" spans="2:10" ht="13.5" thickBot="1">
       <c r="B14" s="2"/>
@@ -3572,11 +10410,11 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="2:10" ht="25.5" customHeight="1">
-      <c r="B15" s="153" t="s">
+      <c r="B15" s="173" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="154"/>
-      <c r="D15" s="154"/>
+      <c r="C15" s="174"/>
+      <c r="D15" s="174"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="39" t="s">
@@ -3629,17 +10467,17 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B22" s="162" t="s">
+      <c r="B22" s="170" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="162"/>
-      <c r="D22" s="162"/>
-      <c r="E22" s="162"/>
-      <c r="F22" s="162"/>
-      <c r="G22" s="162"/>
-      <c r="H22" s="162"/>
-      <c r="I22" s="162"/>
-      <c r="J22" s="162"/>
+      <c r="C22" s="170"/>
+      <c r="D22" s="170"/>
+      <c r="E22" s="170"/>
+      <c r="F22" s="170"/>
+      <c r="G22" s="170"/>
+      <c r="H22" s="170"/>
+      <c r="I22" s="170"/>
+      <c r="J22" s="170"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="44" t="s">
@@ -3651,62 +10489,62 @@
       <c r="D23" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="169" t="s">
+      <c r="E23" s="172" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="169"/>
-      <c r="G23" s="169" t="s">
+      <c r="F23" s="172"/>
+      <c r="G23" s="172" t="s">
         <v>56</v>
       </c>
-      <c r="H23" s="169"/>
-      <c r="I23" s="169"/>
-      <c r="J23" s="169"/>
+      <c r="H23" s="172"/>
+      <c r="I23" s="172"/>
+      <c r="J23" s="172"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="8"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="161"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="161"/>
-      <c r="J24" s="161"/>
+      <c r="E24" s="181"/>
+      <c r="F24" s="181"/>
+      <c r="G24" s="181"/>
+      <c r="H24" s="181"/>
+      <c r="I24" s="181"/>
+      <c r="J24" s="181"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="8"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="161"/>
-      <c r="F25" s="161"/>
-      <c r="G25" s="161"/>
-      <c r="H25" s="161"/>
-      <c r="I25" s="161"/>
-      <c r="J25" s="161"/>
+      <c r="E25" s="181"/>
+      <c r="F25" s="181"/>
+      <c r="G25" s="181"/>
+      <c r="H25" s="181"/>
+      <c r="I25" s="181"/>
+      <c r="J25" s="181"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="8"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="161"/>
-      <c r="F26" s="161"/>
-      <c r="G26" s="161"/>
-      <c r="H26" s="161"/>
-      <c r="I26" s="161"/>
-      <c r="J26" s="161"/>
+      <c r="E26" s="181"/>
+      <c r="F26" s="181"/>
+      <c r="G26" s="181"/>
+      <c r="H26" s="181"/>
+      <c r="I26" s="181"/>
+      <c r="J26" s="181"/>
     </row>
     <row r="28" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B28" s="155" t="s">
+      <c r="B28" s="182" t="s">
         <v>150</v>
       </c>
-      <c r="C28" s="156"/>
-      <c r="D28" s="156"/>
-      <c r="E28" s="156"/>
-      <c r="F28" s="156"/>
-      <c r="G28" s="156"/>
-      <c r="H28" s="156"/>
-      <c r="I28" s="156"/>
-      <c r="J28" s="157"/>
+      <c r="C28" s="183"/>
+      <c r="D28" s="183"/>
+      <c r="E28" s="183"/>
+      <c r="F28" s="183"/>
+      <c r="G28" s="183"/>
+      <c r="H28" s="183"/>
+      <c r="I28" s="183"/>
+      <c r="J28" s="184"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="85" t="s">
@@ -3718,16 +10556,16 @@
       <c r="D29" s="86" t="s">
         <v>153</v>
       </c>
-      <c r="E29" s="158" t="s">
+      <c r="E29" s="185" t="s">
         <v>154</v>
       </c>
-      <c r="F29" s="159"/>
-      <c r="G29" s="158" t="s">
+      <c r="F29" s="186"/>
+      <c r="G29" s="185" t="s">
         <v>56</v>
       </c>
-      <c r="H29" s="160"/>
-      <c r="I29" s="160"/>
-      <c r="J29" s="159"/>
+      <c r="H29" s="187"/>
+      <c r="I29" s="187"/>
+      <c r="J29" s="186"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="87" t="s">
@@ -3735,15 +10573,23 @@
       </c>
       <c r="C30" s="88"/>
       <c r="D30" s="89"/>
-      <c r="E30" s="163"/>
-      <c r="F30" s="164"/>
-      <c r="G30" s="165"/>
-      <c r="H30" s="166"/>
-      <c r="I30" s="166"/>
-      <c r="J30" s="167"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="166"/>
+      <c r="G30" s="167"/>
+      <c r="H30" s="168"/>
+      <c r="I30" s="168"/>
+      <c r="J30" s="169"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:J24"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:J30"/>
     <mergeCell ref="B6:J6"/>
@@ -3760,15 +10606,12 @@
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="G25:J25"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:J24"/>
   </mergeCells>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="13" priority="1" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison2!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -3788,6 +10631,11 @@
     <col min="1" max="2" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData/>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison3!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -3853,39 +10701,39 @@
       <c r="T1" s="48"/>
     </row>
     <row r="2" spans="2:32">
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="188" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="177"/>
-      <c r="K2" s="177"/>
-      <c r="L2" s="177"/>
-      <c r="M2" s="177"/>
-      <c r="N2" s="178" t="s">
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="189"/>
+      <c r="I2" s="189"/>
+      <c r="J2" s="189"/>
+      <c r="K2" s="189"/>
+      <c r="L2" s="189"/>
+      <c r="M2" s="189"/>
+      <c r="N2" s="190" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="178"/>
-      <c r="P2" s="179"/>
-      <c r="Q2" s="180" t="s">
+      <c r="O2" s="190"/>
+      <c r="P2" s="191"/>
+      <c r="Q2" s="192" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="181"/>
-      <c r="S2" s="181"/>
-      <c r="T2" s="181"/>
-      <c r="U2" s="181"/>
-      <c r="V2" s="181"/>
-      <c r="W2" s="181"/>
-      <c r="X2" s="181"/>
-      <c r="Y2" s="181"/>
-      <c r="Z2" s="181"/>
-      <c r="AA2" s="181"/>
-      <c r="AB2" s="182"/>
+      <c r="R2" s="193"/>
+      <c r="S2" s="193"/>
+      <c r="T2" s="193"/>
+      <c r="U2" s="193"/>
+      <c r="V2" s="193"/>
+      <c r="W2" s="193"/>
+      <c r="X2" s="193"/>
+      <c r="Y2" s="193"/>
+      <c r="Z2" s="193"/>
+      <c r="AA2" s="193"/>
+      <c r="AB2" s="194"/>
       <c r="AC2" s="34" t="s">
         <v>56</v>
       </c>
@@ -6497,6 +13345,11 @@
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:AB2"/>
   </mergeCells>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison4!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -6508,16 +13361,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="2" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData/>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison5!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <oleObjects>
+    <oleObject progId="Visio.Drawing.11" shapeId="22529" r:id="rId3"/>
+  </oleObjects>
 </worksheet>
 </file>
 
@@ -6529,7 +13390,7 @@
   <dimension ref="A1:AF13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -6576,39 +13437,39 @@
       <c r="T1" s="48"/>
     </row>
     <row r="2" spans="1:32" ht="25.5" customHeight="1">
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="188" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="177"/>
-      <c r="K2" s="177"/>
-      <c r="L2" s="177"/>
-      <c r="M2" s="177"/>
-      <c r="N2" s="178" t="s">
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="189"/>
+      <c r="I2" s="189"/>
+      <c r="J2" s="189"/>
+      <c r="K2" s="189"/>
+      <c r="L2" s="189"/>
+      <c r="M2" s="189"/>
+      <c r="N2" s="190" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="178"/>
-      <c r="P2" s="179"/>
-      <c r="Q2" s="180" t="s">
+      <c r="O2" s="190"/>
+      <c r="P2" s="191"/>
+      <c r="Q2" s="192" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="181"/>
-      <c r="S2" s="181"/>
-      <c r="T2" s="181"/>
-      <c r="U2" s="181"/>
-      <c r="V2" s="181"/>
-      <c r="W2" s="181"/>
-      <c r="X2" s="181"/>
-      <c r="Y2" s="181"/>
-      <c r="Z2" s="181"/>
-      <c r="AA2" s="181"/>
-      <c r="AB2" s="182"/>
+      <c r="R2" s="193"/>
+      <c r="S2" s="193"/>
+      <c r="T2" s="193"/>
+      <c r="U2" s="193"/>
+      <c r="V2" s="193"/>
+      <c r="W2" s="193"/>
+      <c r="X2" s="193"/>
+      <c r="Y2" s="193"/>
+      <c r="Z2" s="193"/>
+      <c r="AA2" s="193"/>
+      <c r="AB2" s="194"/>
       <c r="AC2" s="34" t="s">
         <v>56</v>
       </c>
@@ -6728,40 +13589,40 @@
       </c>
       <c r="L4" s="118"/>
       <c r="M4" s="118"/>
-      <c r="N4" s="186" t="s">
+      <c r="N4" s="201" t="s">
         <v>188</v>
       </c>
-      <c r="O4" s="189"/>
-      <c r="P4" s="189"/>
-      <c r="Q4" s="192" t="s">
-        <v>120</v>
-      </c>
-      <c r="R4" s="195" t="s">
-        <v>187</v>
-      </c>
-      <c r="S4" s="195" t="s">
-        <v>187</v>
-      </c>
-      <c r="T4" s="192" t="s">
+      <c r="O4" s="195"/>
+      <c r="P4" s="195"/>
+      <c r="Q4" s="204" t="s">
+        <v>120</v>
+      </c>
+      <c r="R4" s="207" t="s">
+        <v>187</v>
+      </c>
+      <c r="S4" s="207" t="s">
+        <v>187</v>
+      </c>
+      <c r="T4" s="204" t="s">
         <v>177</v>
       </c>
-      <c r="U4" s="192" t="s">
+      <c r="U4" s="204" t="s">
         <v>177</v>
       </c>
-      <c r="V4" s="189"/>
-      <c r="W4" s="198" t="s">
+      <c r="V4" s="195"/>
+      <c r="W4" s="210" t="s">
         <v>171</v>
       </c>
-      <c r="X4" s="192" t="s">
+      <c r="X4" s="204" t="s">
         <v>110</v>
       </c>
-      <c r="Y4" s="198">
+      <c r="Y4" s="210">
         <v>2</v>
       </c>
-      <c r="Z4" s="189"/>
-      <c r="AA4" s="189"/>
-      <c r="AB4" s="189"/>
-      <c r="AC4" s="183"/>
+      <c r="Z4" s="195"/>
+      <c r="AA4" s="195"/>
+      <c r="AB4" s="195"/>
+      <c r="AC4" s="198"/>
       <c r="AD4" s="117"/>
       <c r="AE4" s="117"/>
       <c r="AF4" s="117"/>
@@ -6797,22 +13658,22 @@
       </c>
       <c r="L5" s="106"/>
       <c r="M5" s="107"/>
-      <c r="N5" s="187"/>
-      <c r="O5" s="190"/>
-      <c r="P5" s="190"/>
-      <c r="Q5" s="193"/>
-      <c r="R5" s="196"/>
-      <c r="S5" s="196"/>
-      <c r="T5" s="193"/>
-      <c r="U5" s="193"/>
-      <c r="V5" s="190"/>
-      <c r="W5" s="199"/>
-      <c r="X5" s="193"/>
-      <c r="Y5" s="199"/>
-      <c r="Z5" s="190"/>
-      <c r="AA5" s="190"/>
-      <c r="AB5" s="190"/>
-      <c r="AC5" s="184"/>
+      <c r="N5" s="202"/>
+      <c r="O5" s="196"/>
+      <c r="P5" s="196"/>
+      <c r="Q5" s="205"/>
+      <c r="R5" s="208"/>
+      <c r="S5" s="208"/>
+      <c r="T5" s="205"/>
+      <c r="U5" s="205"/>
+      <c r="V5" s="196"/>
+      <c r="W5" s="211"/>
+      <c r="X5" s="205"/>
+      <c r="Y5" s="211"/>
+      <c r="Z5" s="196"/>
+      <c r="AA5" s="196"/>
+      <c r="AB5" s="196"/>
+      <c r="AC5" s="199"/>
     </row>
     <row r="6" spans="1:32">
       <c r="B6" s="58" t="s">
@@ -6845,22 +13706,22 @@
       </c>
       <c r="L6" s="64"/>
       <c r="M6" s="107"/>
-      <c r="N6" s="187"/>
-      <c r="O6" s="190"/>
-      <c r="P6" s="190"/>
-      <c r="Q6" s="193"/>
-      <c r="R6" s="196"/>
-      <c r="S6" s="196"/>
-      <c r="T6" s="193"/>
-      <c r="U6" s="193"/>
-      <c r="V6" s="190"/>
-      <c r="W6" s="199"/>
-      <c r="X6" s="193"/>
-      <c r="Y6" s="199"/>
-      <c r="Z6" s="190"/>
-      <c r="AA6" s="190"/>
-      <c r="AB6" s="190"/>
-      <c r="AC6" s="184"/>
+      <c r="N6" s="202"/>
+      <c r="O6" s="196"/>
+      <c r="P6" s="196"/>
+      <c r="Q6" s="205"/>
+      <c r="R6" s="208"/>
+      <c r="S6" s="208"/>
+      <c r="T6" s="205"/>
+      <c r="U6" s="205"/>
+      <c r="V6" s="196"/>
+      <c r="W6" s="211"/>
+      <c r="X6" s="205"/>
+      <c r="Y6" s="211"/>
+      <c r="Z6" s="196"/>
+      <c r="AA6" s="196"/>
+      <c r="AB6" s="196"/>
+      <c r="AC6" s="199"/>
     </row>
     <row r="7" spans="1:32">
       <c r="B7" s="58" t="s">
@@ -6893,22 +13754,22 @@
       </c>
       <c r="L7" s="64"/>
       <c r="M7" s="107"/>
-      <c r="N7" s="187"/>
-      <c r="O7" s="190"/>
-      <c r="P7" s="190"/>
-      <c r="Q7" s="193"/>
-      <c r="R7" s="196"/>
-      <c r="S7" s="196"/>
-      <c r="T7" s="193"/>
-      <c r="U7" s="193"/>
-      <c r="V7" s="190"/>
-      <c r="W7" s="199"/>
-      <c r="X7" s="193"/>
-      <c r="Y7" s="199"/>
-      <c r="Z7" s="190"/>
-      <c r="AA7" s="190"/>
-      <c r="AB7" s="190"/>
-      <c r="AC7" s="184"/>
+      <c r="N7" s="202"/>
+      <c r="O7" s="196"/>
+      <c r="P7" s="196"/>
+      <c r="Q7" s="205"/>
+      <c r="R7" s="208"/>
+      <c r="S7" s="208"/>
+      <c r="T7" s="205"/>
+      <c r="U7" s="205"/>
+      <c r="V7" s="196"/>
+      <c r="W7" s="211"/>
+      <c r="X7" s="205"/>
+      <c r="Y7" s="211"/>
+      <c r="Z7" s="196"/>
+      <c r="AA7" s="196"/>
+      <c r="AB7" s="196"/>
+      <c r="AC7" s="199"/>
     </row>
     <row r="8" spans="1:32">
       <c r="B8" s="58" t="s">
@@ -6941,22 +13802,22 @@
       </c>
       <c r="L8" s="64"/>
       <c r="M8" s="107"/>
-      <c r="N8" s="187"/>
-      <c r="O8" s="190"/>
-      <c r="P8" s="190"/>
-      <c r="Q8" s="193"/>
-      <c r="R8" s="196"/>
-      <c r="S8" s="196"/>
-      <c r="T8" s="193"/>
-      <c r="U8" s="193"/>
-      <c r="V8" s="190"/>
-      <c r="W8" s="199"/>
-      <c r="X8" s="193"/>
-      <c r="Y8" s="199"/>
-      <c r="Z8" s="190"/>
-      <c r="AA8" s="190"/>
-      <c r="AB8" s="190"/>
-      <c r="AC8" s="184"/>
+      <c r="N8" s="202"/>
+      <c r="O8" s="196"/>
+      <c r="P8" s="196"/>
+      <c r="Q8" s="205"/>
+      <c r="R8" s="208"/>
+      <c r="S8" s="208"/>
+      <c r="T8" s="205"/>
+      <c r="U8" s="205"/>
+      <c r="V8" s="196"/>
+      <c r="W8" s="211"/>
+      <c r="X8" s="205"/>
+      <c r="Y8" s="211"/>
+      <c r="Z8" s="196"/>
+      <c r="AA8" s="196"/>
+      <c r="AB8" s="196"/>
+      <c r="AC8" s="199"/>
     </row>
     <row r="9" spans="1:32">
       <c r="B9" s="58" t="s">
@@ -6989,22 +13850,22 @@
       </c>
       <c r="L9" s="64"/>
       <c r="M9" s="107"/>
-      <c r="N9" s="187"/>
-      <c r="O9" s="190"/>
-      <c r="P9" s="190"/>
-      <c r="Q9" s="193"/>
-      <c r="R9" s="196"/>
-      <c r="S9" s="196"/>
-      <c r="T9" s="193"/>
-      <c r="U9" s="193"/>
-      <c r="V9" s="190"/>
-      <c r="W9" s="199"/>
-      <c r="X9" s="193"/>
-      <c r="Y9" s="199"/>
-      <c r="Z9" s="190"/>
-      <c r="AA9" s="190"/>
-      <c r="AB9" s="190"/>
-      <c r="AC9" s="184"/>
+      <c r="N9" s="202"/>
+      <c r="O9" s="196"/>
+      <c r="P9" s="196"/>
+      <c r="Q9" s="205"/>
+      <c r="R9" s="208"/>
+      <c r="S9" s="208"/>
+      <c r="T9" s="205"/>
+      <c r="U9" s="205"/>
+      <c r="V9" s="196"/>
+      <c r="W9" s="211"/>
+      <c r="X9" s="205"/>
+      <c r="Y9" s="211"/>
+      <c r="Z9" s="196"/>
+      <c r="AA9" s="196"/>
+      <c r="AB9" s="196"/>
+      <c r="AC9" s="199"/>
     </row>
     <row r="10" spans="1:32">
       <c r="B10" s="58" t="s">
@@ -7037,22 +13898,22 @@
       </c>
       <c r="L10" s="64"/>
       <c r="M10" s="107"/>
-      <c r="N10" s="187"/>
-      <c r="O10" s="190"/>
-      <c r="P10" s="190"/>
-      <c r="Q10" s="193"/>
-      <c r="R10" s="196"/>
-      <c r="S10" s="196"/>
-      <c r="T10" s="193"/>
-      <c r="U10" s="193"/>
-      <c r="V10" s="190"/>
-      <c r="W10" s="199"/>
-      <c r="X10" s="193"/>
-      <c r="Y10" s="199"/>
-      <c r="Z10" s="190"/>
-      <c r="AA10" s="190"/>
-      <c r="AB10" s="190"/>
-      <c r="AC10" s="184"/>
+      <c r="N10" s="202"/>
+      <c r="O10" s="196"/>
+      <c r="P10" s="196"/>
+      <c r="Q10" s="205"/>
+      <c r="R10" s="208"/>
+      <c r="S10" s="208"/>
+      <c r="T10" s="205"/>
+      <c r="U10" s="205"/>
+      <c r="V10" s="196"/>
+      <c r="W10" s="211"/>
+      <c r="X10" s="205"/>
+      <c r="Y10" s="211"/>
+      <c r="Z10" s="196"/>
+      <c r="AA10" s="196"/>
+      <c r="AB10" s="196"/>
+      <c r="AC10" s="199"/>
     </row>
     <row r="11" spans="1:32" s="71" customFormat="1" ht="12" customHeight="1">
       <c r="B11" s="58" t="s">
@@ -7085,22 +13946,22 @@
       </c>
       <c r="L11" s="64"/>
       <c r="M11" s="58"/>
-      <c r="N11" s="187"/>
-      <c r="O11" s="190"/>
-      <c r="P11" s="190"/>
-      <c r="Q11" s="193"/>
-      <c r="R11" s="196"/>
-      <c r="S11" s="196"/>
-      <c r="T11" s="193"/>
-      <c r="U11" s="193"/>
-      <c r="V11" s="190"/>
-      <c r="W11" s="199"/>
-      <c r="X11" s="193"/>
-      <c r="Y11" s="199"/>
-      <c r="Z11" s="190"/>
-      <c r="AA11" s="190"/>
-      <c r="AB11" s="190"/>
-      <c r="AC11" s="184"/>
+      <c r="N11" s="202"/>
+      <c r="O11" s="196"/>
+      <c r="P11" s="196"/>
+      <c r="Q11" s="205"/>
+      <c r="R11" s="208"/>
+      <c r="S11" s="208"/>
+      <c r="T11" s="205"/>
+      <c r="U11" s="205"/>
+      <c r="V11" s="196"/>
+      <c r="W11" s="211"/>
+      <c r="X11" s="205"/>
+      <c r="Y11" s="211"/>
+      <c r="Z11" s="196"/>
+      <c r="AA11" s="196"/>
+      <c r="AB11" s="196"/>
+      <c r="AC11" s="199"/>
     </row>
     <row r="12" spans="1:32">
       <c r="B12" s="58" t="s">
@@ -7133,22 +13994,22 @@
       </c>
       <c r="L12" s="64"/>
       <c r="M12" s="107"/>
-      <c r="N12" s="188"/>
-      <c r="O12" s="191"/>
-      <c r="P12" s="191"/>
-      <c r="Q12" s="194"/>
-      <c r="R12" s="197"/>
-      <c r="S12" s="197"/>
-      <c r="T12" s="194"/>
-      <c r="U12" s="194"/>
-      <c r="V12" s="191"/>
-      <c r="W12" s="200"/>
-      <c r="X12" s="194"/>
-      <c r="Y12" s="200"/>
-      <c r="Z12" s="191"/>
-      <c r="AA12" s="191"/>
-      <c r="AB12" s="191"/>
-      <c r="AC12" s="185"/>
+      <c r="N12" s="203"/>
+      <c r="O12" s="197"/>
+      <c r="P12" s="197"/>
+      <c r="Q12" s="206"/>
+      <c r="R12" s="209"/>
+      <c r="S12" s="209"/>
+      <c r="T12" s="206"/>
+      <c r="U12" s="206"/>
+      <c r="V12" s="197"/>
+      <c r="W12" s="212"/>
+      <c r="X12" s="206"/>
+      <c r="Y12" s="212"/>
+      <c r="Z12" s="197"/>
+      <c r="AA12" s="197"/>
+      <c r="AB12" s="197"/>
+      <c r="AC12" s="200"/>
     </row>
     <row r="13" spans="1:32" ht="84">
       <c r="B13" s="58" t="s">
@@ -7218,11 +14079,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="AA4:AA12"/>
-    <mergeCell ref="AB4:AB12"/>
     <mergeCell ref="AC4:AC12"/>
     <mergeCell ref="N4:N12"/>
     <mergeCell ref="O4:O12"/>
@@ -7237,7 +14093,17 @@
     <mergeCell ref="X4:X12"/>
     <mergeCell ref="Y4:Y12"/>
     <mergeCell ref="Z4:Z12"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="AA4:AA12"/>
+    <mergeCell ref="AB4:AB12"/>
   </mergeCells>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison6!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -7253,7 +14119,7 @@
   <dimension ref="A1:AF17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="M4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -7300,39 +14166,39 @@
       <c r="T1" s="48"/>
     </row>
     <row r="2" spans="1:32" ht="25.5" customHeight="1">
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="188" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="177"/>
-      <c r="K2" s="177"/>
-      <c r="L2" s="177"/>
-      <c r="M2" s="177"/>
-      <c r="N2" s="178" t="s">
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="189"/>
+      <c r="I2" s="189"/>
+      <c r="J2" s="189"/>
+      <c r="K2" s="189"/>
+      <c r="L2" s="189"/>
+      <c r="M2" s="189"/>
+      <c r="N2" s="190" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="178"/>
-      <c r="P2" s="179"/>
-      <c r="Q2" s="180" t="s">
+      <c r="O2" s="190"/>
+      <c r="P2" s="191"/>
+      <c r="Q2" s="192" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="181"/>
-      <c r="S2" s="181"/>
-      <c r="T2" s="181"/>
-      <c r="U2" s="181"/>
-      <c r="V2" s="181"/>
-      <c r="W2" s="181"/>
-      <c r="X2" s="181"/>
-      <c r="Y2" s="181"/>
-      <c r="Z2" s="181"/>
-      <c r="AA2" s="181"/>
-      <c r="AB2" s="182"/>
+      <c r="R2" s="193"/>
+      <c r="S2" s="193"/>
+      <c r="T2" s="193"/>
+      <c r="U2" s="193"/>
+      <c r="V2" s="193"/>
+      <c r="W2" s="193"/>
+      <c r="X2" s="193"/>
+      <c r="Y2" s="193"/>
+      <c r="Z2" s="193"/>
+      <c r="AA2" s="193"/>
+      <c r="AB2" s="194"/>
       <c r="AC2" s="34" t="s">
         <v>56</v>
       </c>
@@ -7532,40 +14398,40 @@
       </c>
       <c r="L6" s="118"/>
       <c r="M6" s="118"/>
-      <c r="N6" s="186" t="s">
+      <c r="N6" s="201" t="s">
         <v>191</v>
       </c>
-      <c r="O6" s="189"/>
-      <c r="P6" s="189"/>
-      <c r="Q6" s="201" t="s">
-        <v>120</v>
-      </c>
-      <c r="R6" s="213" t="s">
-        <v>187</v>
-      </c>
-      <c r="S6" s="213" t="s">
-        <v>187</v>
-      </c>
-      <c r="T6" s="201" t="s">
+      <c r="O6" s="195"/>
+      <c r="P6" s="195"/>
+      <c r="Q6" s="213" t="s">
+        <v>120</v>
+      </c>
+      <c r="R6" s="216" t="s">
+        <v>187</v>
+      </c>
+      <c r="S6" s="216" t="s">
+        <v>187</v>
+      </c>
+      <c r="T6" s="213" t="s">
         <v>177</v>
       </c>
-      <c r="U6" s="201" t="s">
+      <c r="U6" s="213" t="s">
         <v>177</v>
       </c>
-      <c r="V6" s="204"/>
-      <c r="W6" s="207" t="s">
+      <c r="V6" s="219"/>
+      <c r="W6" s="222" t="s">
         <v>171</v>
       </c>
-      <c r="X6" s="201" t="s">
+      <c r="X6" s="213" t="s">
         <v>110</v>
       </c>
-      <c r="Y6" s="210">
+      <c r="Y6" s="225">
         <v>2</v>
       </c>
-      <c r="Z6" s="189"/>
-      <c r="AA6" s="189"/>
-      <c r="AB6" s="189"/>
-      <c r="AC6" s="183"/>
+      <c r="Z6" s="195"/>
+      <c r="AA6" s="195"/>
+      <c r="AB6" s="195"/>
+      <c r="AC6" s="198"/>
       <c r="AD6" s="117"/>
       <c r="AE6" s="117"/>
       <c r="AF6" s="117"/>
@@ -7601,22 +14467,22 @@
       </c>
       <c r="L7" s="106"/>
       <c r="M7" s="107"/>
-      <c r="N7" s="187"/>
-      <c r="O7" s="190"/>
-      <c r="P7" s="190"/>
-      <c r="Q7" s="202"/>
-      <c r="R7" s="214"/>
-      <c r="S7" s="214"/>
-      <c r="T7" s="202"/>
-      <c r="U7" s="202"/>
-      <c r="V7" s="205"/>
-      <c r="W7" s="208"/>
-      <c r="X7" s="202"/>
-      <c r="Y7" s="211"/>
-      <c r="Z7" s="190"/>
-      <c r="AA7" s="190"/>
-      <c r="AB7" s="190"/>
-      <c r="AC7" s="184"/>
+      <c r="N7" s="202"/>
+      <c r="O7" s="196"/>
+      <c r="P7" s="196"/>
+      <c r="Q7" s="214"/>
+      <c r="R7" s="217"/>
+      <c r="S7" s="217"/>
+      <c r="T7" s="214"/>
+      <c r="U7" s="214"/>
+      <c r="V7" s="220"/>
+      <c r="W7" s="223"/>
+      <c r="X7" s="214"/>
+      <c r="Y7" s="226"/>
+      <c r="Z7" s="196"/>
+      <c r="AA7" s="196"/>
+      <c r="AB7" s="196"/>
+      <c r="AC7" s="199"/>
     </row>
     <row r="8" spans="1:32">
       <c r="B8" s="58" t="s">
@@ -7649,22 +14515,22 @@
       </c>
       <c r="L8" s="64"/>
       <c r="M8" s="107"/>
-      <c r="N8" s="187"/>
-      <c r="O8" s="190"/>
-      <c r="P8" s="190"/>
-      <c r="Q8" s="202"/>
-      <c r="R8" s="214"/>
-      <c r="S8" s="214"/>
-      <c r="T8" s="202"/>
-      <c r="U8" s="202"/>
-      <c r="V8" s="205"/>
-      <c r="W8" s="208"/>
-      <c r="X8" s="202"/>
-      <c r="Y8" s="211"/>
-      <c r="Z8" s="190"/>
-      <c r="AA8" s="190"/>
-      <c r="AB8" s="190"/>
-      <c r="AC8" s="184"/>
+      <c r="N8" s="202"/>
+      <c r="O8" s="196"/>
+      <c r="P8" s="196"/>
+      <c r="Q8" s="214"/>
+      <c r="R8" s="217"/>
+      <c r="S8" s="217"/>
+      <c r="T8" s="214"/>
+      <c r="U8" s="214"/>
+      <c r="V8" s="220"/>
+      <c r="W8" s="223"/>
+      <c r="X8" s="214"/>
+      <c r="Y8" s="226"/>
+      <c r="Z8" s="196"/>
+      <c r="AA8" s="196"/>
+      <c r="AB8" s="196"/>
+      <c r="AC8" s="199"/>
     </row>
     <row r="9" spans="1:32">
       <c r="B9" s="58" t="s">
@@ -7697,22 +14563,22 @@
       </c>
       <c r="L9" s="64"/>
       <c r="M9" s="107"/>
-      <c r="N9" s="187"/>
-      <c r="O9" s="190"/>
-      <c r="P9" s="190"/>
-      <c r="Q9" s="202"/>
-      <c r="R9" s="214"/>
-      <c r="S9" s="214"/>
-      <c r="T9" s="202"/>
-      <c r="U9" s="202"/>
-      <c r="V9" s="205"/>
-      <c r="W9" s="208"/>
-      <c r="X9" s="202"/>
-      <c r="Y9" s="211"/>
-      <c r="Z9" s="190"/>
-      <c r="AA9" s="190"/>
-      <c r="AB9" s="190"/>
-      <c r="AC9" s="184"/>
+      <c r="N9" s="202"/>
+      <c r="O9" s="196"/>
+      <c r="P9" s="196"/>
+      <c r="Q9" s="214"/>
+      <c r="R9" s="217"/>
+      <c r="S9" s="217"/>
+      <c r="T9" s="214"/>
+      <c r="U9" s="214"/>
+      <c r="V9" s="220"/>
+      <c r="W9" s="223"/>
+      <c r="X9" s="214"/>
+      <c r="Y9" s="226"/>
+      <c r="Z9" s="196"/>
+      <c r="AA9" s="196"/>
+      <c r="AB9" s="196"/>
+      <c r="AC9" s="199"/>
     </row>
     <row r="10" spans="1:32">
       <c r="B10" s="58" t="s">
@@ -7745,22 +14611,22 @@
       </c>
       <c r="L10" s="64"/>
       <c r="M10" s="107"/>
-      <c r="N10" s="187"/>
-      <c r="O10" s="190"/>
-      <c r="P10" s="190"/>
-      <c r="Q10" s="202"/>
-      <c r="R10" s="214"/>
-      <c r="S10" s="214"/>
-      <c r="T10" s="202"/>
-      <c r="U10" s="202"/>
-      <c r="V10" s="205"/>
-      <c r="W10" s="208"/>
-      <c r="X10" s="202"/>
-      <c r="Y10" s="211"/>
-      <c r="Z10" s="190"/>
-      <c r="AA10" s="190"/>
-      <c r="AB10" s="190"/>
-      <c r="AC10" s="184"/>
+      <c r="N10" s="202"/>
+      <c r="O10" s="196"/>
+      <c r="P10" s="196"/>
+      <c r="Q10" s="214"/>
+      <c r="R10" s="217"/>
+      <c r="S10" s="217"/>
+      <c r="T10" s="214"/>
+      <c r="U10" s="214"/>
+      <c r="V10" s="220"/>
+      <c r="W10" s="223"/>
+      <c r="X10" s="214"/>
+      <c r="Y10" s="226"/>
+      <c r="Z10" s="196"/>
+      <c r="AA10" s="196"/>
+      <c r="AB10" s="196"/>
+      <c r="AC10" s="199"/>
     </row>
     <row r="11" spans="1:32">
       <c r="B11" s="58" t="s">
@@ -7793,22 +14659,22 @@
       </c>
       <c r="L11" s="64"/>
       <c r="M11" s="107"/>
-      <c r="N11" s="187"/>
-      <c r="O11" s="190"/>
-      <c r="P11" s="190"/>
-      <c r="Q11" s="202"/>
-      <c r="R11" s="214"/>
-      <c r="S11" s="214"/>
-      <c r="T11" s="202"/>
-      <c r="U11" s="202"/>
-      <c r="V11" s="205"/>
-      <c r="W11" s="208"/>
-      <c r="X11" s="202"/>
-      <c r="Y11" s="211"/>
-      <c r="Z11" s="190"/>
-      <c r="AA11" s="190"/>
-      <c r="AB11" s="190"/>
-      <c r="AC11" s="184"/>
+      <c r="N11" s="202"/>
+      <c r="O11" s="196"/>
+      <c r="P11" s="196"/>
+      <c r="Q11" s="214"/>
+      <c r="R11" s="217"/>
+      <c r="S11" s="217"/>
+      <c r="T11" s="214"/>
+      <c r="U11" s="214"/>
+      <c r="V11" s="220"/>
+      <c r="W11" s="223"/>
+      <c r="X11" s="214"/>
+      <c r="Y11" s="226"/>
+      <c r="Z11" s="196"/>
+      <c r="AA11" s="196"/>
+      <c r="AB11" s="196"/>
+      <c r="AC11" s="199"/>
     </row>
     <row r="12" spans="1:32">
       <c r="B12" s="58" t="s">
@@ -7841,22 +14707,22 @@
       </c>
       <c r="L12" s="64"/>
       <c r="M12" s="107"/>
-      <c r="N12" s="187"/>
-      <c r="O12" s="190"/>
-      <c r="P12" s="190"/>
-      <c r="Q12" s="202"/>
-      <c r="R12" s="214"/>
-      <c r="S12" s="214"/>
-      <c r="T12" s="202"/>
-      <c r="U12" s="202"/>
-      <c r="V12" s="205"/>
-      <c r="W12" s="208"/>
-      <c r="X12" s="202"/>
-      <c r="Y12" s="211"/>
-      <c r="Z12" s="190"/>
-      <c r="AA12" s="190"/>
-      <c r="AB12" s="190"/>
-      <c r="AC12" s="184"/>
+      <c r="N12" s="202"/>
+      <c r="O12" s="196"/>
+      <c r="P12" s="196"/>
+      <c r="Q12" s="214"/>
+      <c r="R12" s="217"/>
+      <c r="S12" s="217"/>
+      <c r="T12" s="214"/>
+      <c r="U12" s="214"/>
+      <c r="V12" s="220"/>
+      <c r="W12" s="223"/>
+      <c r="X12" s="214"/>
+      <c r="Y12" s="226"/>
+      <c r="Z12" s="196"/>
+      <c r="AA12" s="196"/>
+      <c r="AB12" s="196"/>
+      <c r="AC12" s="199"/>
     </row>
     <row r="13" spans="1:32" s="71" customFormat="1" ht="12" customHeight="1">
       <c r="B13" s="58" t="s">
@@ -7889,22 +14755,22 @@
       </c>
       <c r="L13" s="64"/>
       <c r="M13" s="58"/>
-      <c r="N13" s="187"/>
-      <c r="O13" s="190"/>
-      <c r="P13" s="190"/>
-      <c r="Q13" s="202"/>
-      <c r="R13" s="214"/>
-      <c r="S13" s="214"/>
-      <c r="T13" s="202"/>
-      <c r="U13" s="202"/>
-      <c r="V13" s="205"/>
-      <c r="W13" s="208"/>
-      <c r="X13" s="202"/>
-      <c r="Y13" s="211"/>
-      <c r="Z13" s="190"/>
-      <c r="AA13" s="190"/>
-      <c r="AB13" s="190"/>
-      <c r="AC13" s="184"/>
+      <c r="N13" s="202"/>
+      <c r="O13" s="196"/>
+      <c r="P13" s="196"/>
+      <c r="Q13" s="214"/>
+      <c r="R13" s="217"/>
+      <c r="S13" s="217"/>
+      <c r="T13" s="214"/>
+      <c r="U13" s="214"/>
+      <c r="V13" s="220"/>
+      <c r="W13" s="223"/>
+      <c r="X13" s="214"/>
+      <c r="Y13" s="226"/>
+      <c r="Z13" s="196"/>
+      <c r="AA13" s="196"/>
+      <c r="AB13" s="196"/>
+      <c r="AC13" s="199"/>
     </row>
     <row r="14" spans="1:32">
       <c r="B14" s="58" t="s">
@@ -7937,22 +14803,22 @@
       </c>
       <c r="L14" s="64"/>
       <c r="M14" s="107"/>
-      <c r="N14" s="188"/>
-      <c r="O14" s="191"/>
-      <c r="P14" s="191"/>
-      <c r="Q14" s="203"/>
-      <c r="R14" s="215"/>
-      <c r="S14" s="215"/>
-      <c r="T14" s="203"/>
-      <c r="U14" s="203"/>
-      <c r="V14" s="206"/>
-      <c r="W14" s="209"/>
-      <c r="X14" s="203"/>
-      <c r="Y14" s="212"/>
-      <c r="Z14" s="191"/>
-      <c r="AA14" s="191"/>
-      <c r="AB14" s="191"/>
-      <c r="AC14" s="185"/>
+      <c r="N14" s="203"/>
+      <c r="O14" s="197"/>
+      <c r="P14" s="197"/>
+      <c r="Q14" s="215"/>
+      <c r="R14" s="218"/>
+      <c r="S14" s="218"/>
+      <c r="T14" s="215"/>
+      <c r="U14" s="215"/>
+      <c r="V14" s="221"/>
+      <c r="W14" s="224"/>
+      <c r="X14" s="215"/>
+      <c r="Y14" s="227"/>
+      <c r="Z14" s="197"/>
+      <c r="AA14" s="197"/>
+      <c r="AB14" s="197"/>
+      <c r="AC14" s="200"/>
     </row>
     <row r="15" spans="1:32">
       <c r="B15" s="58" t="s">
@@ -8154,6 +15020,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="AC6:AC14"/>
+    <mergeCell ref="U6:U14"/>
+    <mergeCell ref="V6:V14"/>
+    <mergeCell ref="W6:W14"/>
+    <mergeCell ref="X6:X14"/>
+    <mergeCell ref="Y6:Y14"/>
+    <mergeCell ref="Z6:Z14"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:AB2"/>
@@ -8166,14 +15039,12 @@
     <mergeCell ref="T6:T14"/>
     <mergeCell ref="AA6:AA14"/>
     <mergeCell ref="AB6:AB14"/>
-    <mergeCell ref="AC6:AC14"/>
-    <mergeCell ref="U6:U14"/>
-    <mergeCell ref="V6:V14"/>
-    <mergeCell ref="W6:W14"/>
-    <mergeCell ref="X6:X14"/>
-    <mergeCell ref="Y6:Y14"/>
-    <mergeCell ref="Z6:Z14"/>
   </mergeCells>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison7!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -8189,10 +15060,10 @@
   <dimension ref="A1:AF17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
@@ -8236,39 +15107,39 @@
       <c r="T1" s="48"/>
     </row>
     <row r="2" spans="1:32" ht="25.5" customHeight="1">
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="188" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="177"/>
-      <c r="K2" s="177"/>
-      <c r="L2" s="177"/>
-      <c r="M2" s="177"/>
-      <c r="N2" s="178" t="s">
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="189"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="189"/>
+      <c r="I2" s="189"/>
+      <c r="J2" s="189"/>
+      <c r="K2" s="189"/>
+      <c r="L2" s="189"/>
+      <c r="M2" s="189"/>
+      <c r="N2" s="190" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="178"/>
-      <c r="P2" s="179"/>
-      <c r="Q2" s="180" t="s">
+      <c r="O2" s="190"/>
+      <c r="P2" s="191"/>
+      <c r="Q2" s="192" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="181"/>
-      <c r="S2" s="181"/>
-      <c r="T2" s="181"/>
-      <c r="U2" s="181"/>
-      <c r="V2" s="181"/>
-      <c r="W2" s="181"/>
-      <c r="X2" s="181"/>
-      <c r="Y2" s="181"/>
-      <c r="Z2" s="181"/>
-      <c r="AA2" s="181"/>
-      <c r="AB2" s="182"/>
+      <c r="R2" s="193"/>
+      <c r="S2" s="193"/>
+      <c r="T2" s="193"/>
+      <c r="U2" s="193"/>
+      <c r="V2" s="193"/>
+      <c r="W2" s="193"/>
+      <c r="X2" s="193"/>
+      <c r="Y2" s="193"/>
+      <c r="Z2" s="193"/>
+      <c r="AA2" s="193"/>
+      <c r="AB2" s="194"/>
       <c r="AC2" s="34" t="s">
         <v>56</v>
       </c>
@@ -8468,40 +15339,40 @@
       </c>
       <c r="L6" s="118"/>
       <c r="M6" s="118"/>
-      <c r="N6" s="186" t="s">
+      <c r="N6" s="201" t="s">
         <v>198</v>
       </c>
-      <c r="O6" s="189"/>
-      <c r="P6" s="189"/>
-      <c r="Q6" s="201" t="s">
-        <v>120</v>
-      </c>
-      <c r="R6" s="213" t="s">
-        <v>187</v>
-      </c>
-      <c r="S6" s="213" t="s">
-        <v>187</v>
-      </c>
-      <c r="T6" s="201" t="s">
+      <c r="O6" s="195"/>
+      <c r="P6" s="195"/>
+      <c r="Q6" s="213" t="s">
+        <v>120</v>
+      </c>
+      <c r="R6" s="216" t="s">
+        <v>187</v>
+      </c>
+      <c r="S6" s="216" t="s">
+        <v>187</v>
+      </c>
+      <c r="T6" s="213" t="s">
         <v>177</v>
       </c>
-      <c r="U6" s="201" t="s">
+      <c r="U6" s="213" t="s">
         <v>177</v>
       </c>
-      <c r="V6" s="204"/>
-      <c r="W6" s="207" t="s">
+      <c r="V6" s="219"/>
+      <c r="W6" s="222" t="s">
         <v>171</v>
       </c>
-      <c r="X6" s="201" t="s">
+      <c r="X6" s="213" t="s">
         <v>110</v>
       </c>
-      <c r="Y6" s="210">
+      <c r="Y6" s="225">
         <v>2</v>
       </c>
-      <c r="Z6" s="189"/>
-      <c r="AA6" s="189"/>
-      <c r="AB6" s="189"/>
-      <c r="AC6" s="183"/>
+      <c r="Z6" s="195"/>
+      <c r="AA6" s="195"/>
+      <c r="AB6" s="195"/>
+      <c r="AC6" s="198"/>
       <c r="AD6" s="117"/>
       <c r="AE6" s="117"/>
       <c r="AF6" s="117"/>
@@ -8537,22 +15408,22 @@
       </c>
       <c r="L7" s="106"/>
       <c r="M7" s="107"/>
-      <c r="N7" s="187"/>
-      <c r="O7" s="190"/>
-      <c r="P7" s="190"/>
-      <c r="Q7" s="202"/>
-      <c r="R7" s="214"/>
-      <c r="S7" s="214"/>
-      <c r="T7" s="202"/>
-      <c r="U7" s="202"/>
-      <c r="V7" s="205"/>
-      <c r="W7" s="208"/>
-      <c r="X7" s="202"/>
-      <c r="Y7" s="211"/>
-      <c r="Z7" s="190"/>
-      <c r="AA7" s="190"/>
-      <c r="AB7" s="190"/>
-      <c r="AC7" s="184"/>
+      <c r="N7" s="202"/>
+      <c r="O7" s="196"/>
+      <c r="P7" s="196"/>
+      <c r="Q7" s="214"/>
+      <c r="R7" s="217"/>
+      <c r="S7" s="217"/>
+      <c r="T7" s="214"/>
+      <c r="U7" s="214"/>
+      <c r="V7" s="220"/>
+      <c r="W7" s="223"/>
+      <c r="X7" s="214"/>
+      <c r="Y7" s="226"/>
+      <c r="Z7" s="196"/>
+      <c r="AA7" s="196"/>
+      <c r="AB7" s="196"/>
+      <c r="AC7" s="199"/>
     </row>
     <row r="8" spans="1:32">
       <c r="B8" s="58" t="s">
@@ -8585,22 +15456,22 @@
       </c>
       <c r="L8" s="64"/>
       <c r="M8" s="107"/>
-      <c r="N8" s="187"/>
-      <c r="O8" s="190"/>
-      <c r="P8" s="190"/>
-      <c r="Q8" s="202"/>
-      <c r="R8" s="214"/>
-      <c r="S8" s="214"/>
-      <c r="T8" s="202"/>
-      <c r="U8" s="202"/>
-      <c r="V8" s="205"/>
-      <c r="W8" s="208"/>
-      <c r="X8" s="202"/>
-      <c r="Y8" s="211"/>
-      <c r="Z8" s="190"/>
-      <c r="AA8" s="190"/>
-      <c r="AB8" s="190"/>
-      <c r="AC8" s="184"/>
+      <c r="N8" s="202"/>
+      <c r="O8" s="196"/>
+      <c r="P8" s="196"/>
+      <c r="Q8" s="214"/>
+      <c r="R8" s="217"/>
+      <c r="S8" s="217"/>
+      <c r="T8" s="214"/>
+      <c r="U8" s="214"/>
+      <c r="V8" s="220"/>
+      <c r="W8" s="223"/>
+      <c r="X8" s="214"/>
+      <c r="Y8" s="226"/>
+      <c r="Z8" s="196"/>
+      <c r="AA8" s="196"/>
+      <c r="AB8" s="196"/>
+      <c r="AC8" s="199"/>
     </row>
     <row r="9" spans="1:32">
       <c r="B9" s="58" t="s">
@@ -8633,22 +15504,22 @@
       </c>
       <c r="L9" s="64"/>
       <c r="M9" s="107"/>
-      <c r="N9" s="187"/>
-      <c r="O9" s="190"/>
-      <c r="P9" s="190"/>
-      <c r="Q9" s="202"/>
-      <c r="R9" s="214"/>
-      <c r="S9" s="214"/>
-      <c r="T9" s="202"/>
-      <c r="U9" s="202"/>
-      <c r="V9" s="205"/>
-      <c r="W9" s="208"/>
-      <c r="X9" s="202"/>
-      <c r="Y9" s="211"/>
-      <c r="Z9" s="190"/>
-      <c r="AA9" s="190"/>
-      <c r="AB9" s="190"/>
-      <c r="AC9" s="184"/>
+      <c r="N9" s="202"/>
+      <c r="O9" s="196"/>
+      <c r="P9" s="196"/>
+      <c r="Q9" s="214"/>
+      <c r="R9" s="217"/>
+      <c r="S9" s="217"/>
+      <c r="T9" s="214"/>
+      <c r="U9" s="214"/>
+      <c r="V9" s="220"/>
+      <c r="W9" s="223"/>
+      <c r="X9" s="214"/>
+      <c r="Y9" s="226"/>
+      <c r="Z9" s="196"/>
+      <c r="AA9" s="196"/>
+      <c r="AB9" s="196"/>
+      <c r="AC9" s="199"/>
     </row>
     <row r="10" spans="1:32">
       <c r="B10" s="58" t="s">
@@ -8681,22 +15552,22 @@
       </c>
       <c r="L10" s="64"/>
       <c r="M10" s="107"/>
-      <c r="N10" s="187"/>
-      <c r="O10" s="190"/>
-      <c r="P10" s="190"/>
-      <c r="Q10" s="202"/>
-      <c r="R10" s="214"/>
-      <c r="S10" s="214"/>
-      <c r="T10" s="202"/>
-      <c r="U10" s="202"/>
-      <c r="V10" s="205"/>
-      <c r="W10" s="208"/>
-      <c r="X10" s="202"/>
-      <c r="Y10" s="211"/>
-      <c r="Z10" s="190"/>
-      <c r="AA10" s="190"/>
-      <c r="AB10" s="190"/>
-      <c r="AC10" s="184"/>
+      <c r="N10" s="202"/>
+      <c r="O10" s="196"/>
+      <c r="P10" s="196"/>
+      <c r="Q10" s="214"/>
+      <c r="R10" s="217"/>
+      <c r="S10" s="217"/>
+      <c r="T10" s="214"/>
+      <c r="U10" s="214"/>
+      <c r="V10" s="220"/>
+      <c r="W10" s="223"/>
+      <c r="X10" s="214"/>
+      <c r="Y10" s="226"/>
+      <c r="Z10" s="196"/>
+      <c r="AA10" s="196"/>
+      <c r="AB10" s="196"/>
+      <c r="AC10" s="199"/>
     </row>
     <row r="11" spans="1:32">
       <c r="B11" s="58" t="s">
@@ -8729,22 +15600,22 @@
       </c>
       <c r="L11" s="64"/>
       <c r="M11" s="107"/>
-      <c r="N11" s="187"/>
-      <c r="O11" s="190"/>
-      <c r="P11" s="190"/>
-      <c r="Q11" s="202"/>
-      <c r="R11" s="214"/>
-      <c r="S11" s="214"/>
-      <c r="T11" s="202"/>
-      <c r="U11" s="202"/>
-      <c r="V11" s="205"/>
-      <c r="W11" s="208"/>
-      <c r="X11" s="202"/>
-      <c r="Y11" s="211"/>
-      <c r="Z11" s="190"/>
-      <c r="AA11" s="190"/>
-      <c r="AB11" s="190"/>
-      <c r="AC11" s="184"/>
+      <c r="N11" s="202"/>
+      <c r="O11" s="196"/>
+      <c r="P11" s="196"/>
+      <c r="Q11" s="214"/>
+      <c r="R11" s="217"/>
+      <c r="S11" s="217"/>
+      <c r="T11" s="214"/>
+      <c r="U11" s="214"/>
+      <c r="V11" s="220"/>
+      <c r="W11" s="223"/>
+      <c r="X11" s="214"/>
+      <c r="Y11" s="226"/>
+      <c r="Z11" s="196"/>
+      <c r="AA11" s="196"/>
+      <c r="AB11" s="196"/>
+      <c r="AC11" s="199"/>
     </row>
     <row r="12" spans="1:32">
       <c r="B12" s="58" t="s">
@@ -8777,22 +15648,22 @@
       </c>
       <c r="L12" s="64"/>
       <c r="M12" s="107"/>
-      <c r="N12" s="187"/>
-      <c r="O12" s="190"/>
-      <c r="P12" s="190"/>
-      <c r="Q12" s="202"/>
-      <c r="R12" s="214"/>
-      <c r="S12" s="214"/>
-      <c r="T12" s="202"/>
-      <c r="U12" s="202"/>
-      <c r="V12" s="205"/>
-      <c r="W12" s="208"/>
-      <c r="X12" s="202"/>
-      <c r="Y12" s="211"/>
-      <c r="Z12" s="190"/>
-      <c r="AA12" s="190"/>
-      <c r="AB12" s="190"/>
-      <c r="AC12" s="184"/>
+      <c r="N12" s="202"/>
+      <c r="O12" s="196"/>
+      <c r="P12" s="196"/>
+      <c r="Q12" s="214"/>
+      <c r="R12" s="217"/>
+      <c r="S12" s="217"/>
+      <c r="T12" s="214"/>
+      <c r="U12" s="214"/>
+      <c r="V12" s="220"/>
+      <c r="W12" s="223"/>
+      <c r="X12" s="214"/>
+      <c r="Y12" s="226"/>
+      <c r="Z12" s="196"/>
+      <c r="AA12" s="196"/>
+      <c r="AB12" s="196"/>
+      <c r="AC12" s="199"/>
     </row>
     <row r="13" spans="1:32" s="71" customFormat="1" ht="12" customHeight="1">
       <c r="B13" s="58" t="s">
@@ -8825,22 +15696,22 @@
       </c>
       <c r="L13" s="64"/>
       <c r="M13" s="58"/>
-      <c r="N13" s="187"/>
-      <c r="O13" s="190"/>
-      <c r="P13" s="190"/>
-      <c r="Q13" s="202"/>
-      <c r="R13" s="214"/>
-      <c r="S13" s="214"/>
-      <c r="T13" s="202"/>
-      <c r="U13" s="202"/>
-      <c r="V13" s="205"/>
-      <c r="W13" s="208"/>
-      <c r="X13" s="202"/>
-      <c r="Y13" s="211"/>
-      <c r="Z13" s="190"/>
-      <c r="AA13" s="190"/>
-      <c r="AB13" s="190"/>
-      <c r="AC13" s="184"/>
+      <c r="N13" s="202"/>
+      <c r="O13" s="196"/>
+      <c r="P13" s="196"/>
+      <c r="Q13" s="214"/>
+      <c r="R13" s="217"/>
+      <c r="S13" s="217"/>
+      <c r="T13" s="214"/>
+      <c r="U13" s="214"/>
+      <c r="V13" s="220"/>
+      <c r="W13" s="223"/>
+      <c r="X13" s="214"/>
+      <c r="Y13" s="226"/>
+      <c r="Z13" s="196"/>
+      <c r="AA13" s="196"/>
+      <c r="AB13" s="196"/>
+      <c r="AC13" s="199"/>
     </row>
     <row r="14" spans="1:32">
       <c r="B14" s="58" t="s">
@@ -8873,22 +15744,22 @@
       </c>
       <c r="L14" s="64"/>
       <c r="M14" s="107"/>
-      <c r="N14" s="188"/>
-      <c r="O14" s="191"/>
-      <c r="P14" s="191"/>
-      <c r="Q14" s="203"/>
-      <c r="R14" s="215"/>
-      <c r="S14" s="215"/>
-      <c r="T14" s="203"/>
-      <c r="U14" s="203"/>
-      <c r="V14" s="206"/>
-      <c r="W14" s="209"/>
-      <c r="X14" s="203"/>
-      <c r="Y14" s="212"/>
-      <c r="Z14" s="191"/>
-      <c r="AA14" s="191"/>
-      <c r="AB14" s="191"/>
-      <c r="AC14" s="185"/>
+      <c r="N14" s="203"/>
+      <c r="O14" s="197"/>
+      <c r="P14" s="197"/>
+      <c r="Q14" s="215"/>
+      <c r="R14" s="218"/>
+      <c r="S14" s="218"/>
+      <c r="T14" s="215"/>
+      <c r="U14" s="215"/>
+      <c r="V14" s="221"/>
+      <c r="W14" s="224"/>
+      <c r="X14" s="215"/>
+      <c r="Y14" s="227"/>
+      <c r="Z14" s="197"/>
+      <c r="AA14" s="197"/>
+      <c r="AB14" s="197"/>
+      <c r="AC14" s="200"/>
     </row>
     <row r="15" spans="1:32">
       <c r="B15" s="58" t="s">
@@ -9090,9 +15961,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="R6:R14"/>
-    <mergeCell ref="Y6:Y14"/>
-    <mergeCell ref="Z6:Z14"/>
     <mergeCell ref="AA6:AA14"/>
     <mergeCell ref="AB6:AB14"/>
     <mergeCell ref="AC6:AC14"/>
@@ -9109,7 +15977,15 @@
     <mergeCell ref="O6:O14"/>
     <mergeCell ref="P6:P14"/>
     <mergeCell ref="Q6:Q14"/>
+    <mergeCell ref="R6:R14"/>
+    <mergeCell ref="Y6:Y14"/>
+    <mergeCell ref="Z6:Z14"/>
   </mergeCells>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison8!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -9368,6 +16244,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="notEqual">
+      <formula>INDIRECT("Dummy_for_Comparison9!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="91" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -9378,25 +16259,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009C760C40915C1B4C80AF9710AA8AB9B3" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1f63d70067374de11fdd4aac465032ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -9445,15 +16307,49 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5002F17-DDF0-456D-BB3D-9ED669B817C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9468,25 +16364,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5002F17-DDF0-456D-BB3D-9ED669B817C5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>